--- a/miaoTemp/武汉/楚天/汉阳用户.xlsx
+++ b/miaoTemp/武汉/楚天/汉阳用户.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="59">
   <si>
     <t>姓名</t>
   </si>
@@ -149,10 +149,19 @@
     <t>370285199612013224</t>
   </si>
   <si>
+    <t>医院不接二三针</t>
+  </si>
+  <si>
     <t>马俐</t>
   </si>
   <si>
     <t>421087199805295325</t>
+  </si>
+  <si>
+    <t>赵倩</t>
+  </si>
+  <si>
+    <t>340602199803182843</t>
   </si>
   <si>
     <t>冯书语</t>
@@ -1227,10 +1236,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C7:L30"/>
+  <dimension ref="C7:L31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1575,36 +1584,49 @@
       <c r="H28" s="13"/>
     </row>
     <row r="29" spans="3:8">
-      <c r="C29" s="31" t="s">
+      <c r="C29" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="D29" s="32" t="s">
+      <c r="D29" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="E29" s="31">
+      <c r="E29" s="7">
         <v>17054654268</v>
       </c>
-      <c r="F29" s="33">
+      <c r="F29" s="9">
         <v>15207127787</v>
       </c>
-      <c r="G29" s="13"/>
-      <c r="H29" s="13"/>
+      <c r="G29" s="25"/>
+      <c r="H29" s="25" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="30" spans="3:8">
-      <c r="C30" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="D30" s="11" t="s">
+      <c r="C30" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="E30" s="10">
+      <c r="D30" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="E30" s="7">
         <v>17030351179</v>
       </c>
-      <c r="F30" s="12">
+      <c r="F30" s="9">
         <v>17354485221</v>
       </c>
-      <c r="G30" s="13"/>
-      <c r="H30" s="13"/>
+      <c r="G30" s="25"/>
+      <c r="H30" s="25"/>
+    </row>
+    <row r="31" spans="3:6">
+      <c r="C31" t="s">
+        <v>47</v>
+      </c>
+      <c r="D31" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="F31" s="19">
+        <v>18845101651</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1715,10 +1737,10 @@
     </row>
     <row r="11" spans="5:9">
       <c r="E11" s="10" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="F11" s="41" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="G11" s="10">
         <v>17190092942</v>
@@ -1732,10 +1754,10 @@
     </row>
     <row r="12" spans="5:9">
       <c r="E12" s="10" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="G12" s="10">
         <v>17136341196</v>
@@ -1749,10 +1771,10 @@
     </row>
     <row r="13" spans="5:9">
       <c r="E13" s="13" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="G13" s="10">
         <v>17040214075</v>
@@ -1766,10 +1788,10 @@
     </row>
     <row r="14" spans="5:9">
       <c r="E14" s="10" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="F14" s="11" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="G14" s="10">
         <v>17050683431</v>
@@ -1783,10 +1805,10 @@
     </row>
     <row r="15" spans="5:9">
       <c r="E15" s="10" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="G15" s="10">
         <v>15607045070</v>

--- a/miaoTemp/武汉/楚天/汉阳用户.xlsx
+++ b/miaoTemp/武汉/楚天/汉阳用户.xlsx
@@ -1239,7 +1239,7 @@
   <dimension ref="C7:L31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F35" sqref="F35"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>

--- a/miaoTemp/武汉/楚天/汉阳用户.xlsx
+++ b/miaoTemp/武汉/楚天/汉阳用户.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="56">
   <si>
     <t>姓名</t>
   </si>
@@ -96,15 +96,6 @@
   </si>
   <si>
     <t>500382199808086442</t>
-  </si>
-  <si>
-    <t>胡雪敏</t>
-  </si>
-  <si>
-    <t>421023199507142927</t>
-  </si>
-  <si>
-    <t>超龄了，号可以回收</t>
   </si>
   <si>
     <t>刘杉杉</t>
@@ -850,7 +841,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
@@ -902,20 +893,18 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" quotePrefix="1"/>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" quotePrefix="1"/>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" quotePrefix="1"/>
     <xf numFmtId="49" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" quotePrefix="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" quotePrefix="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" quotePrefix="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="49">
@@ -1236,10 +1225,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C7:L31"/>
+  <dimension ref="C7:L30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1289,7 +1278,7 @@
       <c r="C9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="37" t="s">
+      <c r="D9" s="36" t="s">
         <v>8</v>
       </c>
       <c r="E9" s="1">
@@ -1310,7 +1299,7 @@
       <c r="C10" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="37" t="s">
+      <c r="D10" s="36" t="s">
         <v>11</v>
       </c>
       <c r="E10" s="1">
@@ -1331,7 +1320,7 @@
       <c r="C11" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="37" t="s">
+      <c r="D11" s="36" t="s">
         <v>14</v>
       </c>
       <c r="E11" s="1">
@@ -1352,7 +1341,7 @@
       <c r="C12" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="38" t="s">
+      <c r="D12" s="37" t="s">
         <v>17</v>
       </c>
       <c r="E12" s="4">
@@ -1370,7 +1359,7 @@
       <c r="C13" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D13" s="39" t="s">
+      <c r="D13" s="38" t="s">
         <v>19</v>
       </c>
       <c r="E13" s="7">
@@ -1402,7 +1391,7 @@
       <c r="C15" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="D15" s="40" t="s">
+      <c r="D15" s="39" t="s">
         <v>23</v>
       </c>
       <c r="E15" s="26">
@@ -1422,7 +1411,7 @@
       <c r="C16" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="D16" s="41" t="s">
+      <c r="D16" s="40" t="s">
         <v>26</v>
       </c>
       <c r="E16" s="10">
@@ -1435,153 +1424,153 @@
       <c r="H16" s="13"/>
     </row>
     <row r="17" spans="3:8">
-      <c r="C17" s="31" t="s">
+      <c r="C17" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="D17" s="42" t="s">
+      <c r="D17" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="E17" s="31">
-        <v>17054654268</v>
-      </c>
-      <c r="F17" s="33">
-        <v>17875713686</v>
-      </c>
-      <c r="G17" s="13"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="12">
+        <v>18704601232</v>
+      </c>
+      <c r="G17" s="31"/>
       <c r="H17" s="13" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="3:8">
-      <c r="C18" s="10" t="s">
+    <row r="18" spans="7:8">
+      <c r="G18" s="31"/>
+      <c r="H18" s="13"/>
+    </row>
+    <row r="19" spans="3:8">
+      <c r="C19" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="D18" s="41" t="s">
+      <c r="D19" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="E18" s="10"/>
-      <c r="F18" s="12">
-        <v>18704601232</v>
-      </c>
-      <c r="G18" s="34"/>
-      <c r="H18" s="13" t="s">
+      <c r="E19" s="34">
+        <v>17152022762</v>
+      </c>
+      <c r="F19" s="35">
+        <v>13129949932</v>
+      </c>
+      <c r="G19" s="17"/>
+      <c r="H19" s="13" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="7:8">
-      <c r="G19" s="34"/>
-      <c r="H19" s="13"/>
-    </row>
     <row r="20" spans="3:8">
-      <c r="C20" s="35" t="s">
-        <v>33</v>
-      </c>
-      <c r="D20" s="43" t="s">
-        <v>34</v>
-      </c>
-      <c r="E20" s="31">
-        <v>17152022762</v>
-      </c>
-      <c r="F20" s="33">
-        <v>13129949932</v>
-      </c>
-      <c r="G20" s="17"/>
+      <c r="C20" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D20" s="40" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20" s="10">
+        <v>17129530447</v>
+      </c>
+      <c r="F20" s="12">
+        <v>17762459127</v>
+      </c>
+      <c r="G20" s="17">
+        <v>44902</v>
+      </c>
       <c r="H20" s="13" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="21" spans="3:8">
-      <c r="C21" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="D21" s="41" t="s">
-        <v>23</v>
-      </c>
-      <c r="E21" s="10">
-        <v>17129530447</v>
-      </c>
-      <c r="F21" s="12">
-        <v>17762459127</v>
-      </c>
-      <c r="G21" s="17">
-        <v>44902</v>
-      </c>
-      <c r="H21" s="13" t="s">
         <v>24</v>
       </c>
+    </row>
+    <row r="21" spans="7:8">
+      <c r="G21" s="13"/>
+      <c r="H21" s="13"/>
     </row>
     <row r="22" spans="7:8">
       <c r="G22" s="13"/>
       <c r="H22" s="13"/>
     </row>
-    <row r="23" spans="7:8">
-      <c r="G23" s="13"/>
+    <row r="23" spans="8:8">
       <c r="H23" s="13"/>
     </row>
-    <row r="24" spans="8:8">
+    <row r="24" spans="3:8">
+      <c r="C24" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D24" s="40" t="s">
+        <v>34</v>
+      </c>
+      <c r="E24" s="10">
+        <v>15734965373</v>
+      </c>
+      <c r="F24" s="12">
+        <v>18153623551</v>
+      </c>
+      <c r="G24" s="17"/>
       <c r="H24" s="13"/>
     </row>
     <row r="25" spans="3:8">
       <c r="C25" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D25" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="D25" s="41" t="s">
-        <v>37</v>
-      </c>
       <c r="E25" s="10">
-        <v>15734965373</v>
+        <v>17153075010</v>
       </c>
       <c r="F25" s="12">
-        <v>18153623551</v>
+        <v>15171980859</v>
       </c>
       <c r="G25" s="17"/>
       <c r="H25" s="13"/>
     </row>
     <row r="26" spans="3:8">
       <c r="C26" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D26" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="D26" s="11" t="s">
-        <v>39</v>
-      </c>
       <c r="E26" s="10">
-        <v>17153075010</v>
+        <v>17198212532</v>
       </c>
       <c r="F26" s="12">
-        <v>15171980859</v>
+        <v>15982066827</v>
       </c>
       <c r="G26" s="17"/>
       <c r="H26" s="13"/>
     </row>
     <row r="27" spans="3:8">
       <c r="C27" s="10" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="D27" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="E27" s="10">
-        <v>17198212532</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="E27" s="10"/>
       <c r="F27" s="12">
-        <v>15982066827</v>
+        <v>15730080765</v>
       </c>
       <c r="G27" s="17"/>
       <c r="H27" s="13"/>
     </row>
     <row r="28" spans="3:8">
-      <c r="C28" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="D28" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="E28" s="10"/>
-      <c r="F28" s="12">
-        <v>15730080765</v>
-      </c>
-      <c r="G28" s="17"/>
-      <c r="H28" s="13"/>
+      <c r="C28" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E28" s="7">
+        <v>17054654268</v>
+      </c>
+      <c r="F28" s="9">
+        <v>15207127787</v>
+      </c>
+      <c r="G28" s="25"/>
+      <c r="H28" s="25" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="29" spans="3:8">
       <c r="C29" s="7" t="s">
@@ -1591,40 +1580,25 @@
         <v>43</v>
       </c>
       <c r="E29" s="7">
-        <v>17054654268</v>
+        <v>17030351179</v>
       </c>
       <c r="F29" s="9">
-        <v>15207127787</v>
+        <v>17354485221</v>
       </c>
       <c r="G29" s="25"/>
-      <c r="H29" s="25" t="s">
+      <c r="H29" s="25"/>
+    </row>
+    <row r="30" spans="3:6">
+      <c r="C30" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="30" spans="3:8">
-      <c r="C30" s="7" t="s">
+      <c r="D30" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="D30" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="E30" s="7">
-        <v>17030351179</v>
-      </c>
-      <c r="F30" s="9">
-        <v>17354485221</v>
-      </c>
-      <c r="G30" s="25"/>
-      <c r="H30" s="25"/>
-    </row>
-    <row r="31" spans="3:6">
-      <c r="C31" t="s">
-        <v>47</v>
-      </c>
-      <c r="D31" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="F31" s="19">
+      <c r="E30">
+        <v>17198212532</v>
+      </c>
+      <c r="F30" s="19">
         <v>18845101651</v>
       </c>
     </row>
@@ -1640,7 +1614,7 @@
   <dimension ref="E6:I35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15:I15"/>
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1654,7 +1628,7 @@
       <c r="E6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F6" s="37" t="s">
+      <c r="F6" s="36" t="s">
         <v>8</v>
       </c>
       <c r="G6" s="1">
@@ -1671,7 +1645,7 @@
       <c r="E7" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="37" t="s">
+      <c r="F7" s="36" t="s">
         <v>11</v>
       </c>
       <c r="G7" s="1">
@@ -1688,7 +1662,7 @@
       <c r="E8" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F8" s="37" t="s">
+      <c r="F8" s="36" t="s">
         <v>14</v>
       </c>
       <c r="G8" s="1">
@@ -1705,7 +1679,7 @@
       <c r="E9" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F9" s="38" t="s">
+      <c r="F9" s="37" t="s">
         <v>17</v>
       </c>
       <c r="G9" s="4">
@@ -1722,7 +1696,7 @@
       <c r="E10" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="F10" s="39" t="s">
+      <c r="F10" s="38" t="s">
         <v>19</v>
       </c>
       <c r="G10" s="7">
@@ -1737,10 +1711,10 @@
     </row>
     <row r="11" spans="5:9">
       <c r="E11" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="F11" s="41" t="s">
-        <v>50</v>
+        <v>46</v>
+      </c>
+      <c r="F11" s="40" t="s">
+        <v>47</v>
       </c>
       <c r="G11" s="10">
         <v>17190092942</v>
@@ -1754,10 +1728,10 @@
     </row>
     <row r="12" spans="5:9">
       <c r="E12" s="10" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G12" s="10">
         <v>17136341196</v>
@@ -1771,10 +1745,10 @@
     </row>
     <row r="13" spans="5:9">
       <c r="E13" s="13" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G13" s="10">
         <v>17040214075</v>
@@ -1788,10 +1762,10 @@
     </row>
     <row r="14" spans="5:9">
       <c r="E14" s="10" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F14" s="11" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="G14" s="10">
         <v>17050683431</v>
@@ -1805,10 +1779,10 @@
     </row>
     <row r="15" spans="5:9">
       <c r="E15" s="10" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="G15" s="10">
         <v>15607045070</v>

--- a/miaoTemp/武汉/楚天/汉阳用户.xlsx
+++ b/miaoTemp/武汉/楚天/汉阳用户.xlsx
@@ -1228,7 +1228,7 @@
   <dimension ref="C7:L30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+      <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>

--- a/miaoTemp/武汉/楚天/汉阳用户.xlsx
+++ b/miaoTemp/武汉/楚天/汉阳用户.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="58">
   <si>
     <t>姓名</t>
   </si>
@@ -149,40 +149,46 @@
     <t>421087199805295325</t>
   </si>
   <si>
+    <t>周月月</t>
+  </si>
+  <si>
+    <t>411527199909155545</t>
+  </si>
+  <si>
+    <t>冯书语</t>
+  </si>
+  <si>
+    <t>422822199801240040</t>
+  </si>
+  <si>
+    <t>桂子艺</t>
+  </si>
+  <si>
+    <t>42080420021220232X</t>
+  </si>
+  <si>
+    <t>张倩</t>
+  </si>
+  <si>
+    <t>370125199612145946</t>
+  </si>
+  <si>
+    <t>王露露</t>
+  </si>
+  <si>
+    <t>37078619970104064X</t>
+  </si>
+  <si>
+    <t>徐春秀</t>
+  </si>
+  <si>
+    <t>37150219970418932X</t>
+  </si>
+  <si>
     <t>赵倩</t>
   </si>
   <si>
     <t>340602199803182843</t>
-  </si>
-  <si>
-    <t>冯书语</t>
-  </si>
-  <si>
-    <t>422822199801240040</t>
-  </si>
-  <si>
-    <t>桂子艺</t>
-  </si>
-  <si>
-    <t>42080420021220232X</t>
-  </si>
-  <si>
-    <t>张倩</t>
-  </si>
-  <si>
-    <t>370125199612145946</t>
-  </si>
-  <si>
-    <t>王露露</t>
-  </si>
-  <si>
-    <t>37078619970104064X</t>
-  </si>
-  <si>
-    <t>徐春秀</t>
-  </si>
-  <si>
-    <t>37150219970418932X</t>
   </si>
 </sst>
 </file>
@@ -841,7 +847,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
@@ -858,6 +864,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -870,8 +878,6 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -896,16 +902,22 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" quotePrefix="1"/>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" quotePrefix="1"/>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" quotePrefix="1"/>
     <xf numFmtId="49" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" quotePrefix="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" quotePrefix="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" quotePrefix="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1225,18 +1237,18 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C7:L30"/>
+  <dimension ref="C7:L45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G32" sqref="G32"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="3" max="3" width="7.5" customWidth="1"/>
-    <col min="4" max="4" width="20.375" style="18" customWidth="1"/>
+    <col min="4" max="4" width="20.375" style="14" customWidth="1"/>
     <col min="5" max="5" width="12.625" customWidth="1"/>
-    <col min="6" max="6" width="12.625" style="19" customWidth="1"/>
+    <col min="6" max="6" width="12.625" style="15" customWidth="1"/>
     <col min="7" max="7" width="11" style="20" customWidth="1"/>
     <col min="8" max="8" width="34.25" style="20" customWidth="1"/>
     <col min="13" max="14" width="12.625"/>
@@ -1278,7 +1290,7 @@
       <c r="C9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="36" t="s">
+      <c r="D9" s="40" t="s">
         <v>8</v>
       </c>
       <c r="E9" s="1">
@@ -1287,7 +1299,7 @@
       <c r="F9" s="3">
         <v>18872055089</v>
       </c>
-      <c r="G9" s="14">
+      <c r="G9" s="16">
         <v>44895</v>
       </c>
       <c r="H9" s="13"/>
@@ -1299,7 +1311,7 @@
       <c r="C10" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="36" t="s">
+      <c r="D10" s="40" t="s">
         <v>11</v>
       </c>
       <c r="E10" s="1">
@@ -1308,7 +1320,7 @@
       <c r="F10" s="3">
         <v>15071061492</v>
       </c>
-      <c r="G10" s="14">
+      <c r="G10" s="16">
         <v>44897</v>
       </c>
       <c r="H10" s="13"/>
@@ -1320,7 +1332,7 @@
       <c r="C11" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="36" t="s">
+      <c r="D11" s="40" t="s">
         <v>14</v>
       </c>
       <c r="E11" s="1">
@@ -1329,7 +1341,7 @@
       <c r="F11" s="3">
         <v>18191390509</v>
       </c>
-      <c r="G11" s="14">
+      <c r="G11" s="16">
         <v>44897</v>
       </c>
       <c r="H11" s="13"/>
@@ -1341,7 +1353,7 @@
       <c r="C12" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="37" t="s">
+      <c r="D12" s="41" t="s">
         <v>17</v>
       </c>
       <c r="E12" s="4">
@@ -1350,7 +1362,7 @@
       <c r="F12" s="6">
         <v>13212734213</v>
       </c>
-      <c r="G12" s="15">
+      <c r="G12" s="17">
         <v>44895</v>
       </c>
       <c r="H12" s="13"/>
@@ -1359,7 +1371,7 @@
       <c r="C13" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D13" s="38" t="s">
+      <c r="D13" s="42" t="s">
         <v>19</v>
       </c>
       <c r="E13" s="7">
@@ -1368,7 +1380,7 @@
       <c r="F13" s="9">
         <v>13545147593</v>
       </c>
-      <c r="G13" s="16">
+      <c r="G13" s="18">
         <v>44895</v>
       </c>
       <c r="H13" s="25" t="s">
@@ -1391,7 +1403,7 @@
       <c r="C15" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="D15" s="39" t="s">
+      <c r="D15" s="43" t="s">
         <v>23</v>
       </c>
       <c r="E15" s="26">
@@ -1411,7 +1423,7 @@
       <c r="C16" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="D16" s="40" t="s">
+      <c r="D16" s="44" t="s">
         <v>26</v>
       </c>
       <c r="E16" s="10">
@@ -1427,7 +1439,7 @@
       <c r="C17" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="D17" s="40" t="s">
+      <c r="D17" s="44" t="s">
         <v>28</v>
       </c>
       <c r="E17" s="10"/>
@@ -1439,24 +1451,28 @@
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="7:8">
+    <row r="18" spans="3:8">
+      <c r="C18" s="32"/>
+      <c r="D18" s="33"/>
+      <c r="E18" s="32"/>
+      <c r="F18" s="34"/>
       <c r="G18" s="31"/>
       <c r="H18" s="13"/>
     </row>
     <row r="19" spans="3:8">
-      <c r="C19" s="32" t="s">
+      <c r="C19" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="41" t="s">
+      <c r="D19" s="45" t="s">
         <v>31</v>
       </c>
-      <c r="E19" s="34">
+      <c r="E19" s="37">
         <v>17152022762</v>
       </c>
-      <c r="F19" s="35">
+      <c r="F19" s="38">
         <v>13129949932</v>
       </c>
-      <c r="G19" s="17"/>
+      <c r="G19" s="19"/>
       <c r="H19" s="13" t="s">
         <v>32</v>
       </c>
@@ -1465,7 +1481,7 @@
       <c r="C20" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="D20" s="40" t="s">
+      <c r="D20" s="44" t="s">
         <v>23</v>
       </c>
       <c r="E20" s="10">
@@ -1474,29 +1490,42 @@
       <c r="F20" s="12">
         <v>17762459127</v>
       </c>
-      <c r="G20" s="17">
+      <c r="G20" s="19">
         <v>44902</v>
       </c>
       <c r="H20" s="13" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="7:8">
+    <row r="21" spans="3:8">
+      <c r="C21" s="32"/>
+      <c r="D21" s="33"/>
+      <c r="E21" s="32"/>
+      <c r="F21" s="34"/>
       <c r="G21" s="13"/>
       <c r="H21" s="13"/>
     </row>
-    <row r="22" spans="7:8">
+    <row r="22" spans="3:8">
+      <c r="C22" s="32"/>
+      <c r="D22" s="33"/>
+      <c r="E22" s="32"/>
+      <c r="F22" s="34"/>
       <c r="G22" s="13"/>
       <c r="H22" s="13"/>
     </row>
-    <row r="23" spans="8:8">
+    <row r="23" spans="3:8">
+      <c r="C23" s="32"/>
+      <c r="D23" s="33"/>
+      <c r="E23" s="32"/>
+      <c r="F23" s="34"/>
+      <c r="G23" s="39"/>
       <c r="H23" s="13"/>
     </row>
     <row r="24" spans="3:8">
       <c r="C24" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="D24" s="40" t="s">
+      <c r="D24" s="44" t="s">
         <v>34</v>
       </c>
       <c r="E24" s="10">
@@ -1505,7 +1534,7 @@
       <c r="F24" s="12">
         <v>18153623551</v>
       </c>
-      <c r="G24" s="17"/>
+      <c r="G24" s="19"/>
       <c r="H24" s="13"/>
     </row>
     <row r="25" spans="3:8">
@@ -1515,13 +1544,11 @@
       <c r="D25" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="E25" s="10">
-        <v>17153075010</v>
-      </c>
+      <c r="E25" s="10"/>
       <c r="F25" s="12">
         <v>15171980859</v>
       </c>
-      <c r="G25" s="17"/>
+      <c r="G25" s="19"/>
       <c r="H25" s="13"/>
     </row>
     <row r="26" spans="3:8">
@@ -1531,13 +1558,11 @@
       <c r="D26" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="E26" s="10">
-        <v>17198212532</v>
-      </c>
+      <c r="E26" s="10"/>
       <c r="F26" s="12">
         <v>15982066827</v>
       </c>
-      <c r="G26" s="17"/>
+      <c r="G26" s="19"/>
       <c r="H26" s="13"/>
     </row>
     <row r="27" spans="3:8">
@@ -1551,7 +1576,7 @@
       <c r="F27" s="12">
         <v>15730080765</v>
       </c>
-      <c r="G27" s="17"/>
+      <c r="G27" s="19"/>
       <c r="H27" s="13"/>
     </row>
     <row r="28" spans="3:8">
@@ -1588,19 +1613,141 @@
       <c r="G29" s="25"/>
       <c r="H29" s="25"/>
     </row>
-    <row r="30" spans="3:6">
-      <c r="C30" t="s">
+    <row r="30" spans="3:8">
+      <c r="C30" s="32"/>
+      <c r="D30" s="32"/>
+      <c r="E30" s="32"/>
+      <c r="F30" s="32"/>
+      <c r="G30" s="39"/>
+      <c r="H30" s="39"/>
+    </row>
+    <row r="31" spans="3:8">
+      <c r="C31" s="32" t="s">
         <v>44</v>
       </c>
-      <c r="D30" s="18" t="s">
+      <c r="D31" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="E30">
-        <v>17198212532</v>
-      </c>
-      <c r="F30" s="19">
-        <v>18845101651</v>
-      </c>
+      <c r="E31" s="32">
+        <v>17153075010</v>
+      </c>
+      <c r="F31" s="34">
+        <v>13135677522</v>
+      </c>
+      <c r="G31" s="39"/>
+      <c r="H31" s="39"/>
+    </row>
+    <row r="32" spans="3:8">
+      <c r="C32" s="32"/>
+      <c r="D32" s="33"/>
+      <c r="E32" s="32"/>
+      <c r="F32" s="34"/>
+      <c r="G32" s="39"/>
+      <c r="H32" s="39"/>
+    </row>
+    <row r="33" spans="3:8">
+      <c r="C33" s="32"/>
+      <c r="D33" s="33"/>
+      <c r="E33" s="32"/>
+      <c r="F33" s="34"/>
+      <c r="G33" s="39"/>
+      <c r="H33" s="39"/>
+    </row>
+    <row r="34" spans="3:8">
+      <c r="C34" s="32"/>
+      <c r="D34" s="33"/>
+      <c r="E34" s="32"/>
+      <c r="F34" s="34"/>
+      <c r="G34" s="39"/>
+      <c r="H34" s="39"/>
+    </row>
+    <row r="35" spans="3:8">
+      <c r="C35" s="32"/>
+      <c r="D35" s="33"/>
+      <c r="E35" s="32"/>
+      <c r="F35" s="34"/>
+      <c r="G35" s="39"/>
+      <c r="H35" s="39"/>
+    </row>
+    <row r="36" spans="3:8">
+      <c r="C36" s="32"/>
+      <c r="D36" s="33"/>
+      <c r="E36" s="32"/>
+      <c r="F36" s="34"/>
+      <c r="G36" s="39"/>
+      <c r="H36" s="39"/>
+    </row>
+    <row r="37" spans="3:8">
+      <c r="C37" s="32"/>
+      <c r="D37" s="33"/>
+      <c r="E37" s="32"/>
+      <c r="F37" s="34"/>
+      <c r="G37" s="39"/>
+      <c r="H37" s="39"/>
+    </row>
+    <row r="38" spans="3:8">
+      <c r="C38" s="32"/>
+      <c r="D38" s="33"/>
+      <c r="E38" s="32"/>
+      <c r="F38" s="34"/>
+      <c r="G38" s="39"/>
+      <c r="H38" s="39"/>
+    </row>
+    <row r="39" spans="3:8">
+      <c r="C39" s="32"/>
+      <c r="D39" s="33"/>
+      <c r="E39" s="32"/>
+      <c r="F39" s="34"/>
+      <c r="G39" s="39"/>
+      <c r="H39" s="39"/>
+    </row>
+    <row r="40" spans="3:8">
+      <c r="C40" s="32"/>
+      <c r="D40" s="33"/>
+      <c r="E40" s="32"/>
+      <c r="F40" s="34"/>
+      <c r="G40" s="39"/>
+      <c r="H40" s="39"/>
+    </row>
+    <row r="41" spans="3:8">
+      <c r="C41" s="32"/>
+      <c r="D41" s="33"/>
+      <c r="E41" s="32"/>
+      <c r="F41" s="34"/>
+      <c r="G41" s="39"/>
+      <c r="H41" s="39"/>
+    </row>
+    <row r="42" spans="3:8">
+      <c r="C42" s="32"/>
+      <c r="D42" s="33"/>
+      <c r="E42" s="32"/>
+      <c r="F42" s="34"/>
+      <c r="G42" s="39"/>
+      <c r="H42" s="39"/>
+    </row>
+    <row r="43" spans="3:8">
+      <c r="C43" s="32"/>
+      <c r="D43" s="33"/>
+      <c r="E43" s="32"/>
+      <c r="F43" s="34"/>
+      <c r="G43" s="39"/>
+      <c r="H43" s="39"/>
+    </row>
+    <row r="44" spans="3:8">
+      <c r="C44" s="32"/>
+      <c r="D44" s="33"/>
+      <c r="E44" s="32"/>
+      <c r="F44" s="34"/>
+      <c r="G44" s="39"/>
+      <c r="H44" s="39"/>
+    </row>
+    <row r="45" spans="3:8">
+      <c r="C45" s="32"/>
+      <c r="D45" s="33"/>
+      <c r="E45" s="32"/>
+      <c r="F45" s="34"/>
+      <c r="G45" s="39"/>
+      <c r="H45" s="39"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1614,7 +1761,7 @@
   <dimension ref="E6:I35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1628,7 +1775,7 @@
       <c r="E6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F6" s="36" t="s">
+      <c r="F6" s="40" t="s">
         <v>8</v>
       </c>
       <c r="G6" s="1">
@@ -1637,7 +1784,7 @@
       <c r="H6" s="3">
         <v>18872055089</v>
       </c>
-      <c r="I6" s="14">
+      <c r="I6" s="16">
         <v>44895</v>
       </c>
     </row>
@@ -1645,7 +1792,7 @@
       <c r="E7" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="36" t="s">
+      <c r="F7" s="40" t="s">
         <v>11</v>
       </c>
       <c r="G7" s="1">
@@ -1654,7 +1801,7 @@
       <c r="H7" s="3">
         <v>15071061492</v>
       </c>
-      <c r="I7" s="14">
+      <c r="I7" s="16">
         <v>44897</v>
       </c>
     </row>
@@ -1662,7 +1809,7 @@
       <c r="E8" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F8" s="36" t="s">
+      <c r="F8" s="40" t="s">
         <v>14</v>
       </c>
       <c r="G8" s="1">
@@ -1671,7 +1818,7 @@
       <c r="H8" s="3">
         <v>18191390509</v>
       </c>
-      <c r="I8" s="14">
+      <c r="I8" s="16">
         <v>44897</v>
       </c>
     </row>
@@ -1679,7 +1826,7 @@
       <c r="E9" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F9" s="37" t="s">
+      <c r="F9" s="41" t="s">
         <v>17</v>
       </c>
       <c r="G9" s="4">
@@ -1688,7 +1835,7 @@
       <c r="H9" s="6">
         <v>13212734213</v>
       </c>
-      <c r="I9" s="15">
+      <c r="I9" s="17">
         <v>44895</v>
       </c>
     </row>
@@ -1696,7 +1843,7 @@
       <c r="E10" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="F10" s="38" t="s">
+      <c r="F10" s="42" t="s">
         <v>19</v>
       </c>
       <c r="G10" s="7">
@@ -1705,7 +1852,7 @@
       <c r="H10" s="9">
         <v>13545147593</v>
       </c>
-      <c r="I10" s="16">
+      <c r="I10" s="18">
         <v>44895</v>
       </c>
     </row>
@@ -1713,7 +1860,7 @@
       <c r="E11" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="F11" s="40" t="s">
+      <c r="F11" s="44" t="s">
         <v>47</v>
       </c>
       <c r="G11" s="10">
@@ -1722,7 +1869,7 @@
       <c r="H11" s="12">
         <v>15871380235</v>
       </c>
-      <c r="I11" s="17">
+      <c r="I11" s="19">
         <v>44902</v>
       </c>
     </row>
@@ -1739,7 +1886,7 @@
       <c r="H12" s="12">
         <v>13657150026</v>
       </c>
-      <c r="I12" s="17">
+      <c r="I12" s="19">
         <v>44902</v>
       </c>
     </row>
@@ -1756,7 +1903,7 @@
       <c r="H13" s="12">
         <v>17865815159</v>
       </c>
-      <c r="I13" s="17">
+      <c r="I13" s="19">
         <v>44902</v>
       </c>
     </row>
@@ -1773,7 +1920,7 @@
       <c r="H14" s="12">
         <v>18864805773</v>
       </c>
-      <c r="I14" s="17">
+      <c r="I14" s="19">
         <v>44902</v>
       </c>
     </row>
@@ -1790,15 +1937,23 @@
       <c r="H15" s="12">
         <v>17865815139</v>
       </c>
-      <c r="I15" s="17">
+      <c r="I15" s="19">
         <v>44902</v>
       </c>
     </row>
     <row r="16" spans="5:9">
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="10"/>
+      <c r="E16" t="s">
+        <v>56</v>
+      </c>
+      <c r="F16" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="G16">
+        <v>17198212532</v>
+      </c>
+      <c r="H16" s="15">
+        <v>18845101651</v>
+      </c>
       <c r="I16" s="10"/>
     </row>
     <row r="17" spans="5:9">

--- a/miaoTemp/武汉/楚天/汉阳用户.xlsx
+++ b/miaoTemp/武汉/楚天/汉阳用户.xlsx
@@ -1239,8 +1239,8 @@
   <sheetPr/>
   <dimension ref="C7:L45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>

--- a/miaoTemp/武汉/楚天/汉阳用户.xlsx
+++ b/miaoTemp/武汉/楚天/汉阳用户.xlsx
@@ -847,7 +847,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
@@ -902,16 +902,9 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" quotePrefix="1"/>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" quotePrefix="1"/>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" quotePrefix="1"/>
@@ -1240,7 +1233,7 @@
   <dimension ref="C7:L45"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+      <selection activeCell="K27" sqref="K27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1290,7 +1283,7 @@
       <c r="C9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="40" t="s">
+      <c r="D9" s="35" t="s">
         <v>8</v>
       </c>
       <c r="E9" s="1">
@@ -1311,7 +1304,7 @@
       <c r="C10" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="40" t="s">
+      <c r="D10" s="35" t="s">
         <v>11</v>
       </c>
       <c r="E10" s="1">
@@ -1332,7 +1325,7 @@
       <c r="C11" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="40" t="s">
+      <c r="D11" s="35" t="s">
         <v>14</v>
       </c>
       <c r="E11" s="1">
@@ -1353,7 +1346,7 @@
       <c r="C12" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="41" t="s">
+      <c r="D12" s="36" t="s">
         <v>17</v>
       </c>
       <c r="E12" s="4">
@@ -1371,7 +1364,7 @@
       <c r="C13" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D13" s="42" t="s">
+      <c r="D13" s="37" t="s">
         <v>19</v>
       </c>
       <c r="E13" s="7">
@@ -1403,7 +1396,7 @@
       <c r="C15" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="D15" s="43" t="s">
+      <c r="D15" s="38" t="s">
         <v>23</v>
       </c>
       <c r="E15" s="26">
@@ -1423,7 +1416,7 @@
       <c r="C16" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="D16" s="44" t="s">
+      <c r="D16" s="39" t="s">
         <v>26</v>
       </c>
       <c r="E16" s="10">
@@ -1439,7 +1432,7 @@
       <c r="C17" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="D17" s="44" t="s">
+      <c r="D17" s="39" t="s">
         <v>28</v>
       </c>
       <c r="E17" s="10"/>
@@ -1452,24 +1445,24 @@
       </c>
     </row>
     <row r="18" spans="3:8">
-      <c r="C18" s="32"/>
-      <c r="D18" s="33"/>
-      <c r="E18" s="32"/>
-      <c r="F18" s="34"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="12"/>
       <c r="G18" s="31"/>
       <c r="H18" s="13"/>
     </row>
     <row r="19" spans="3:8">
-      <c r="C19" s="35" t="s">
+      <c r="C19" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="45" t="s">
+      <c r="D19" s="40" t="s">
         <v>31</v>
       </c>
-      <c r="E19" s="37">
+      <c r="E19" s="32">
         <v>17152022762</v>
       </c>
-      <c r="F19" s="38">
+      <c r="F19" s="34">
         <v>13129949932</v>
       </c>
       <c r="G19" s="19"/>
@@ -1481,7 +1474,7 @@
       <c r="C20" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="D20" s="44" t="s">
+      <c r="D20" s="39" t="s">
         <v>23</v>
       </c>
       <c r="E20" s="10">
@@ -1498,34 +1491,34 @@
       </c>
     </row>
     <row r="21" spans="3:8">
-      <c r="C21" s="32"/>
-      <c r="D21" s="33"/>
-      <c r="E21" s="32"/>
-      <c r="F21" s="34"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="12"/>
       <c r="G21" s="13"/>
       <c r="H21" s="13"/>
     </row>
     <row r="22" spans="3:8">
-      <c r="C22" s="32"/>
-      <c r="D22" s="33"/>
-      <c r="E22" s="32"/>
-      <c r="F22" s="34"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="12"/>
       <c r="G22" s="13"/>
       <c r="H22" s="13"/>
     </row>
     <row r="23" spans="3:8">
-      <c r="C23" s="32"/>
-      <c r="D23" s="33"/>
-      <c r="E23" s="32"/>
-      <c r="F23" s="34"/>
-      <c r="G23" s="39"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="13"/>
       <c r="H23" s="13"/>
     </row>
     <row r="24" spans="3:8">
       <c r="C24" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="D24" s="44" t="s">
+      <c r="D24" s="39" t="s">
         <v>34</v>
       </c>
       <c r="E24" s="10">
@@ -1614,140 +1607,140 @@
       <c r="H29" s="25"/>
     </row>
     <row r="30" spans="3:8">
-      <c r="C30" s="32"/>
-      <c r="D30" s="32"/>
-      <c r="E30" s="32"/>
-      <c r="F30" s="32"/>
-      <c r="G30" s="39"/>
-      <c r="H30" s="39"/>
+      <c r="C30" s="10"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="10"/>
+      <c r="G30" s="13"/>
+      <c r="H30" s="13"/>
     </row>
     <row r="31" spans="3:8">
-      <c r="C31" s="32" t="s">
+      <c r="C31" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="D31" s="33" t="s">
+      <c r="D31" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="E31" s="32">
+      <c r="E31" s="10">
         <v>17153075010</v>
       </c>
-      <c r="F31" s="34">
+      <c r="F31" s="12">
         <v>13135677522</v>
       </c>
-      <c r="G31" s="39"/>
-      <c r="H31" s="39"/>
+      <c r="G31" s="13"/>
+      <c r="H31" s="13"/>
     </row>
     <row r="32" spans="3:8">
-      <c r="C32" s="32"/>
-      <c r="D32" s="33"/>
-      <c r="E32" s="32"/>
-      <c r="F32" s="34"/>
-      <c r="G32" s="39"/>
-      <c r="H32" s="39"/>
+      <c r="C32" s="10"/>
+      <c r="D32" s="11"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="12"/>
+      <c r="G32" s="13"/>
+      <c r="H32" s="13"/>
     </row>
     <row r="33" spans="3:8">
-      <c r="C33" s="32"/>
-      <c r="D33" s="33"/>
-      <c r="E33" s="32"/>
-      <c r="F33" s="34"/>
-      <c r="G33" s="39"/>
-      <c r="H33" s="39"/>
+      <c r="C33" s="10"/>
+      <c r="D33" s="11"/>
+      <c r="E33" s="10"/>
+      <c r="F33" s="12"/>
+      <c r="G33" s="13"/>
+      <c r="H33" s="13"/>
     </row>
     <row r="34" spans="3:8">
-      <c r="C34" s="32"/>
-      <c r="D34" s="33"/>
-      <c r="E34" s="32"/>
-      <c r="F34" s="34"/>
-      <c r="G34" s="39"/>
-      <c r="H34" s="39"/>
+      <c r="C34" s="10"/>
+      <c r="D34" s="11"/>
+      <c r="E34" s="10"/>
+      <c r="F34" s="12"/>
+      <c r="G34" s="13"/>
+      <c r="H34" s="13"/>
     </row>
     <row r="35" spans="3:8">
-      <c r="C35" s="32"/>
-      <c r="D35" s="33"/>
-      <c r="E35" s="32"/>
-      <c r="F35" s="34"/>
-      <c r="G35" s="39"/>
-      <c r="H35" s="39"/>
+      <c r="C35" s="10"/>
+      <c r="D35" s="11"/>
+      <c r="E35" s="10"/>
+      <c r="F35" s="12"/>
+      <c r="G35" s="13"/>
+      <c r="H35" s="13"/>
     </row>
     <row r="36" spans="3:8">
-      <c r="C36" s="32"/>
-      <c r="D36" s="33"/>
-      <c r="E36" s="32"/>
-      <c r="F36" s="34"/>
-      <c r="G36" s="39"/>
-      <c r="H36" s="39"/>
+      <c r="C36" s="10"/>
+      <c r="D36" s="11"/>
+      <c r="E36" s="10"/>
+      <c r="F36" s="12"/>
+      <c r="G36" s="13"/>
+      <c r="H36" s="13"/>
     </row>
     <row r="37" spans="3:8">
-      <c r="C37" s="32"/>
-      <c r="D37" s="33"/>
-      <c r="E37" s="32"/>
-      <c r="F37" s="34"/>
-      <c r="G37" s="39"/>
-      <c r="H37" s="39"/>
+      <c r="C37" s="10"/>
+      <c r="D37" s="11"/>
+      <c r="E37" s="10"/>
+      <c r="F37" s="12"/>
+      <c r="G37" s="13"/>
+      <c r="H37" s="13"/>
     </row>
     <row r="38" spans="3:8">
-      <c r="C38" s="32"/>
-      <c r="D38" s="33"/>
-      <c r="E38" s="32"/>
-      <c r="F38" s="34"/>
-      <c r="G38" s="39"/>
-      <c r="H38" s="39"/>
+      <c r="C38" s="10"/>
+      <c r="D38" s="11"/>
+      <c r="E38" s="10"/>
+      <c r="F38" s="12"/>
+      <c r="G38" s="13"/>
+      <c r="H38" s="13"/>
     </row>
     <row r="39" spans="3:8">
-      <c r="C39" s="32"/>
-      <c r="D39" s="33"/>
-      <c r="E39" s="32"/>
-      <c r="F39" s="34"/>
-      <c r="G39" s="39"/>
-      <c r="H39" s="39"/>
+      <c r="C39" s="10"/>
+      <c r="D39" s="11"/>
+      <c r="E39" s="10"/>
+      <c r="F39" s="12"/>
+      <c r="G39" s="13"/>
+      <c r="H39" s="13"/>
     </row>
     <row r="40" spans="3:8">
-      <c r="C40" s="32"/>
-      <c r="D40" s="33"/>
-      <c r="E40" s="32"/>
-      <c r="F40" s="34"/>
-      <c r="G40" s="39"/>
-      <c r="H40" s="39"/>
+      <c r="C40" s="10"/>
+      <c r="D40" s="11"/>
+      <c r="E40" s="10"/>
+      <c r="F40" s="12"/>
+      <c r="G40" s="13"/>
+      <c r="H40" s="13"/>
     </row>
     <row r="41" spans="3:8">
-      <c r="C41" s="32"/>
-      <c r="D41" s="33"/>
-      <c r="E41" s="32"/>
-      <c r="F41" s="34"/>
-      <c r="G41" s="39"/>
-      <c r="H41" s="39"/>
+      <c r="C41" s="10"/>
+      <c r="D41" s="11"/>
+      <c r="E41" s="10"/>
+      <c r="F41" s="12"/>
+      <c r="G41" s="13"/>
+      <c r="H41" s="13"/>
     </row>
     <row r="42" spans="3:8">
-      <c r="C42" s="32"/>
-      <c r="D42" s="33"/>
-      <c r="E42" s="32"/>
-      <c r="F42" s="34"/>
-      <c r="G42" s="39"/>
-      <c r="H42" s="39"/>
+      <c r="C42" s="10"/>
+      <c r="D42" s="11"/>
+      <c r="E42" s="10"/>
+      <c r="F42" s="12"/>
+      <c r="G42" s="13"/>
+      <c r="H42" s="13"/>
     </row>
     <row r="43" spans="3:8">
-      <c r="C43" s="32"/>
-      <c r="D43" s="33"/>
-      <c r="E43" s="32"/>
-      <c r="F43" s="34"/>
-      <c r="G43" s="39"/>
-      <c r="H43" s="39"/>
+      <c r="C43" s="10"/>
+      <c r="D43" s="11"/>
+      <c r="E43" s="10"/>
+      <c r="F43" s="12"/>
+      <c r="G43" s="13"/>
+      <c r="H43" s="13"/>
     </row>
     <row r="44" spans="3:8">
-      <c r="C44" s="32"/>
-      <c r="D44" s="33"/>
-      <c r="E44" s="32"/>
-      <c r="F44" s="34"/>
-      <c r="G44" s="39"/>
-      <c r="H44" s="39"/>
+      <c r="C44" s="10"/>
+      <c r="D44" s="11"/>
+      <c r="E44" s="10"/>
+      <c r="F44" s="12"/>
+      <c r="G44" s="13"/>
+      <c r="H44" s="13"/>
     </row>
     <row r="45" spans="3:8">
-      <c r="C45" s="32"/>
-      <c r="D45" s="33"/>
-      <c r="E45" s="32"/>
-      <c r="F45" s="34"/>
-      <c r="G45" s="39"/>
-      <c r="H45" s="39"/>
+      <c r="C45" s="10"/>
+      <c r="D45" s="11"/>
+      <c r="E45" s="10"/>
+      <c r="F45" s="12"/>
+      <c r="G45" s="13"/>
+      <c r="H45" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1775,7 +1768,7 @@
       <c r="E6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F6" s="40" t="s">
+      <c r="F6" s="35" t="s">
         <v>8</v>
       </c>
       <c r="G6" s="1">
@@ -1792,7 +1785,7 @@
       <c r="E7" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="40" t="s">
+      <c r="F7" s="35" t="s">
         <v>11</v>
       </c>
       <c r="G7" s="1">
@@ -1809,7 +1802,7 @@
       <c r="E8" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F8" s="40" t="s">
+      <c r="F8" s="35" t="s">
         <v>14</v>
       </c>
       <c r="G8" s="1">
@@ -1826,7 +1819,7 @@
       <c r="E9" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F9" s="41" t="s">
+      <c r="F9" s="36" t="s">
         <v>17</v>
       </c>
       <c r="G9" s="4">
@@ -1843,7 +1836,7 @@
       <c r="E10" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="F10" s="42" t="s">
+      <c r="F10" s="37" t="s">
         <v>19</v>
       </c>
       <c r="G10" s="7">
@@ -1860,7 +1853,7 @@
       <c r="E11" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="F11" s="44" t="s">
+      <c r="F11" s="39" t="s">
         <v>47</v>
       </c>
       <c r="G11" s="10">

--- a/miaoTemp/武汉/楚天/汉阳用户.xlsx
+++ b/miaoTemp/武汉/楚天/汉阳用户.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
   <si>
     <t>姓名</t>
   </si>
@@ -38,33 +38,90 @@
     <t>2. 点击公众号右下角【智慧医疗】-【疫苗接种预约】进入预约挂号页面</t>
   </si>
   <si>
+    <t>3. 预约挂号页面点击【我的】</t>
+  </si>
+  <si>
+    <t>4. 点击登录，按照提供的手机号密码登录</t>
+  </si>
+  <si>
+    <t>5. 登录后点击【我的订单】查询预约结果</t>
+  </si>
+  <si>
+    <t>测试</t>
+  </si>
+  <si>
+    <t>柴梦鸽</t>
+  </si>
+  <si>
+    <t>142731199711270928</t>
+  </si>
+  <si>
+    <t>放假了</t>
+  </si>
+  <si>
+    <t>汪少琴</t>
+  </si>
+  <si>
+    <t>420322199908261221</t>
+  </si>
+  <si>
+    <t>寝室封了还没出来</t>
+  </si>
+  <si>
+    <t>王静静</t>
+  </si>
+  <si>
+    <t>622426199808061521</t>
+  </si>
+  <si>
+    <t>雷玉双</t>
+  </si>
+  <si>
+    <t>420583199707093720</t>
+  </si>
+  <si>
+    <t>赵雅琴</t>
+  </si>
+  <si>
+    <t>421081199905074281</t>
+  </si>
+  <si>
+    <t>晏林</t>
+  </si>
+  <si>
+    <t>500382199808086442</t>
+  </si>
+  <si>
+    <t>何丹</t>
+  </si>
+  <si>
+    <t>511922199909123926</t>
+  </si>
+  <si>
+    <t>黄雨琪</t>
+  </si>
+  <si>
+    <t>420503200104235527</t>
+  </si>
+  <si>
     <t>张远媛</t>
   </si>
   <si>
     <t>612426199806235426</t>
   </si>
   <si>
-    <t>3. 预约挂号页面点击【我的】</t>
-  </si>
-  <si>
     <t>黄露丹</t>
   </si>
   <si>
     <t>420802199908260028</t>
   </si>
   <si>
-    <t>4. 点击登录，按照提供的手机号密码登录</t>
-  </si>
-  <si>
     <t>高佩</t>
   </si>
   <si>
     <t>610502200007165626</t>
   </si>
   <si>
-    <t>5. 登录后点击【我的订单】查询预约结果</t>
-  </si>
-  <si>
     <t xml:space="preserve">李梦希 </t>
   </si>
   <si>
@@ -77,118 +134,46 @@
     <t>411524199506020022</t>
   </si>
   <si>
-    <t>用户说打不了阔龄</t>
-  </si>
-  <si>
-    <t>测试</t>
-  </si>
-  <si>
-    <t>柴梦鸽</t>
-  </si>
-  <si>
-    <t>142731199711270928</t>
-  </si>
-  <si>
-    <t>放假了</t>
-  </si>
-  <si>
-    <t>晏林</t>
-  </si>
-  <si>
-    <t>500382199808086442</t>
-  </si>
-  <si>
-    <t>刘杉杉</t>
-  </si>
-  <si>
-    <t>230405199608260247</t>
-  </si>
-  <si>
-    <t>超龄了</t>
-  </si>
-  <si>
-    <t>汪少琴</t>
-  </si>
-  <si>
-    <t>420322199908261221</t>
-  </si>
-  <si>
-    <t>寝室封了还没出来</t>
-  </si>
-  <si>
-    <t>王静静</t>
-  </si>
-  <si>
-    <t>622426199808061521</t>
-  </si>
-  <si>
-    <t>雷玉双</t>
-  </si>
-  <si>
-    <t>420583199707093720</t>
-  </si>
-  <si>
-    <t>赵雅琴</t>
-  </si>
-  <si>
-    <t>421081199905074281</t>
-  </si>
-  <si>
-    <t>刘萍</t>
-  </si>
-  <si>
-    <t>370285199612013224</t>
-  </si>
-  <si>
-    <t>医院不接二三针</t>
-  </si>
-  <si>
-    <t>马俐</t>
-  </si>
-  <si>
-    <t>421087199805295325</t>
+    <t>冯书语</t>
+  </si>
+  <si>
+    <t>422822199801240040</t>
+  </si>
+  <si>
+    <t>桂子艺</t>
+  </si>
+  <si>
+    <t>42080420021220232X</t>
+  </si>
+  <si>
+    <t>张倩</t>
+  </si>
+  <si>
+    <t>370125199612145946</t>
+  </si>
+  <si>
+    <t>王露露</t>
+  </si>
+  <si>
+    <t>37078619970104064X</t>
+  </si>
+  <si>
+    <t>徐春秀</t>
+  </si>
+  <si>
+    <t>37150219970418932X</t>
+  </si>
+  <si>
+    <t>赵倩</t>
+  </si>
+  <si>
+    <t>340602199803182843</t>
   </si>
   <si>
     <t>周月月</t>
   </si>
   <si>
     <t>411527199909155545</t>
-  </si>
-  <si>
-    <t>冯书语</t>
-  </si>
-  <si>
-    <t>422822199801240040</t>
-  </si>
-  <si>
-    <t>桂子艺</t>
-  </si>
-  <si>
-    <t>42080420021220232X</t>
-  </si>
-  <si>
-    <t>张倩</t>
-  </si>
-  <si>
-    <t>370125199612145946</t>
-  </si>
-  <si>
-    <t>王露露</t>
-  </si>
-  <si>
-    <t>37078619970104064X</t>
-  </si>
-  <si>
-    <t>徐春秀</t>
-  </si>
-  <si>
-    <t>37150219970418932X</t>
-  </si>
-  <si>
-    <t>赵倩</t>
-  </si>
-  <si>
-    <t>340602199803182843</t>
   </si>
 </sst>
 </file>
@@ -899,18 +884,19 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" quotePrefix="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" quotePrefix="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" quotePrefix="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" quotePrefix="1"/>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" quotePrefix="1"/>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" quotePrefix="1"/>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" quotePrefix="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" quotePrefix="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1233,7 +1219,7 @@
   <dimension ref="C7:L45"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="K27" sqref="K27"/>
+      <selection activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1280,109 +1266,57 @@
       </c>
     </row>
     <row r="9" spans="3:12">
-      <c r="C9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" s="35" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9" s="1">
-        <v>17050685132</v>
-      </c>
-      <c r="F9" s="3">
-        <v>18872055089</v>
-      </c>
-      <c r="G9" s="16">
-        <v>44895</v>
-      </c>
+      <c r="C9" s="1"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="16"/>
       <c r="H9" s="13"/>
       <c r="L9" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="3:12">
-      <c r="C10" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10" s="35" t="s">
-        <v>11</v>
-      </c>
-      <c r="E10" s="1">
-        <v>17198008619</v>
-      </c>
-      <c r="F10" s="3">
-        <v>15071061492</v>
-      </c>
-      <c r="G10" s="16">
-        <v>44897</v>
-      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="16"/>
       <c r="H10" s="13"/>
       <c r="L10" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="3:12">
-      <c r="C11" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D11" s="35" t="s">
-        <v>14</v>
-      </c>
-      <c r="E11" s="1">
-        <v>17025472447</v>
-      </c>
-      <c r="F11" s="3">
-        <v>18191390509</v>
-      </c>
-      <c r="G11" s="16">
-        <v>44897</v>
-      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="16"/>
       <c r="H11" s="13"/>
       <c r="L11" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="3:8">
-      <c r="C12" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D12" s="36" t="s">
-        <v>17</v>
-      </c>
-      <c r="E12" s="4">
-        <v>17025472447</v>
-      </c>
-      <c r="F12" s="6">
-        <v>13212734213</v>
-      </c>
-      <c r="G12" s="17">
-        <v>44895</v>
-      </c>
+      <c r="C12" s="4"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="17"/>
       <c r="H12" s="13"/>
     </row>
     <row r="13" spans="3:8">
-      <c r="C13" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D13" s="37" t="s">
-        <v>19</v>
-      </c>
-      <c r="E13" s="7">
-        <v>17147715197</v>
-      </c>
-      <c r="F13" s="9">
-        <v>13545147593</v>
-      </c>
-      <c r="G13" s="18">
-        <v>44895</v>
-      </c>
-      <c r="H13" s="25" t="s">
-        <v>20</v>
-      </c>
+      <c r="C13" s="7"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="25"/>
     </row>
     <row r="14" spans="3:8">
       <c r="C14" s="10" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="D14" s="11"/>
       <c r="E14" s="1">
@@ -1394,10 +1328,10 @@
     </row>
     <row r="15" spans="3:8">
       <c r="C15" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="D15" s="38" t="s">
-        <v>23</v>
+        <v>11</v>
+      </c>
+      <c r="D15" s="35" t="s">
+        <v>12</v>
       </c>
       <c r="E15" s="26">
         <v>17129530447</v>
@@ -1409,86 +1343,58 @@
         <v>44902</v>
       </c>
       <c r="H15" s="30" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="3:8">
-      <c r="C16" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" s="39" t="s">
-        <v>26</v>
-      </c>
-      <c r="E16" s="10">
-        <v>17050685132</v>
-      </c>
-      <c r="F16" s="12">
-        <v>15730080765</v>
-      </c>
-      <c r="G16" s="13"/>
-      <c r="H16" s="13"/>
+      <c r="C16" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="E16" s="31">
+        <v>17152022762</v>
+      </c>
+      <c r="F16" s="33">
+        <v>13129949932</v>
+      </c>
+      <c r="G16" s="19"/>
+      <c r="H16" s="13" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="17" spans="3:8">
-      <c r="C17" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17" s="39" t="s">
-        <v>28</v>
-      </c>
+      <c r="C17" s="10"/>
+      <c r="D17" s="11"/>
       <c r="E17" s="10"/>
-      <c r="F17" s="12">
-        <v>18704601232</v>
-      </c>
-      <c r="G17" s="31"/>
-      <c r="H17" s="13" t="s">
-        <v>29</v>
-      </c>
+      <c r="F17" s="12"/>
+      <c r="G17" s="34"/>
+      <c r="H17" s="13"/>
     </row>
     <row r="18" spans="3:8">
       <c r="C18" s="10"/>
       <c r="D18" s="11"/>
       <c r="E18" s="10"/>
       <c r="F18" s="12"/>
-      <c r="G18" s="31"/>
+      <c r="G18" s="34"/>
       <c r="H18" s="13"/>
     </row>
     <row r="19" spans="3:8">
-      <c r="C19" s="32" t="s">
-        <v>30</v>
-      </c>
-      <c r="D19" s="40" t="s">
-        <v>31</v>
-      </c>
-      <c r="E19" s="32">
-        <v>17152022762</v>
-      </c>
-      <c r="F19" s="34">
-        <v>13129949932</v>
-      </c>
+      <c r="C19" s="31"/>
+      <c r="D19" s="32"/>
+      <c r="E19" s="31"/>
+      <c r="F19" s="33"/>
       <c r="G19" s="19"/>
-      <c r="H19" s="13" t="s">
-        <v>32</v>
-      </c>
+      <c r="H19" s="13"/>
     </row>
     <row r="20" spans="3:8">
-      <c r="C20" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="D20" s="39" t="s">
-        <v>23</v>
-      </c>
-      <c r="E20" s="10">
-        <v>17129530447</v>
-      </c>
-      <c r="F20" s="12">
-        <v>17762459127</v>
-      </c>
-      <c r="G20" s="19">
-        <v>44902</v>
-      </c>
-      <c r="H20" s="13" t="s">
-        <v>24</v>
-      </c>
+      <c r="C20" s="10"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="19"/>
+      <c r="H20" s="13"/>
     </row>
     <row r="21" spans="3:8">
       <c r="C21" s="10"/>
@@ -1516,14 +1422,12 @@
     </row>
     <row r="24" spans="3:8">
       <c r="C24" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="D24" s="39" t="s">
-        <v>34</v>
-      </c>
-      <c r="E24" s="10">
-        <v>15734965373</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="D24" s="37" t="s">
+        <v>18</v>
+      </c>
+      <c r="E24" s="10"/>
       <c r="F24" s="12">
         <v>18153623551</v>
       </c>
@@ -1532,10 +1436,10 @@
     </row>
     <row r="25" spans="3:8">
       <c r="C25" s="10" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="D25" s="11" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="E25" s="10"/>
       <c r="F25" s="12">
@@ -1546,10 +1450,10 @@
     </row>
     <row r="26" spans="3:8">
       <c r="C26" s="10" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="D26" s="11" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="E26" s="10"/>
       <c r="F26" s="12">
@@ -1560,10 +1464,10 @@
     </row>
     <row r="27" spans="3:8">
       <c r="C27" s="10" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D27" s="11" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E27" s="10"/>
       <c r="F27" s="12">
@@ -1573,59 +1477,49 @@
       <c r="H27" s="13"/>
     </row>
     <row r="28" spans="3:8">
-      <c r="C28" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="D28" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="E28" s="7">
-        <v>17054654268</v>
-      </c>
-      <c r="F28" s="9">
-        <v>15207127787</v>
-      </c>
+      <c r="C28" s="7"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="9"/>
       <c r="G28" s="25"/>
-      <c r="H28" s="25" t="s">
-        <v>41</v>
-      </c>
+      <c r="H28" s="25"/>
     </row>
     <row r="29" spans="3:8">
-      <c r="C29" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="D29" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="E29" s="7">
-        <v>17030351179</v>
-      </c>
-      <c r="F29" s="9">
-        <v>17354485221</v>
-      </c>
+      <c r="C29" s="7"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="9"/>
       <c r="G29" s="25"/>
       <c r="H29" s="25"/>
     </row>
     <row r="30" spans="3:8">
-      <c r="C30" s="10"/>
-      <c r="D30" s="10"/>
-      <c r="E30" s="10"/>
-      <c r="F30" s="10"/>
+      <c r="C30" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D30" s="38" t="s">
+        <v>26</v>
+      </c>
+      <c r="E30" s="10">
+        <v>15734965373</v>
+      </c>
+      <c r="F30" s="10">
+        <v>15671850433</v>
+      </c>
       <c r="G30" s="13"/>
       <c r="H30" s="13"/>
     </row>
     <row r="31" spans="3:8">
       <c r="C31" s="10" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="D31" s="11" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="E31" s="10">
-        <v>17153075010</v>
+        <v>17129530447</v>
       </c>
       <c r="F31" s="12">
-        <v>13135677522</v>
+        <v>15571708432</v>
       </c>
       <c r="G31" s="13"/>
       <c r="H31" s="13"/>
@@ -1641,7 +1535,9 @@
     <row r="33" spans="3:8">
       <c r="C33" s="10"/>
       <c r="D33" s="11"/>
-      <c r="E33" s="10"/>
+      <c r="E33" s="10">
+        <v>17050684778</v>
+      </c>
       <c r="F33" s="12"/>
       <c r="G33" s="13"/>
       <c r="H33" s="13"/>
@@ -1649,7 +1545,9 @@
     <row r="34" spans="3:8">
       <c r="C34" s="10"/>
       <c r="D34" s="11"/>
-      <c r="E34" s="10"/>
+      <c r="E34" s="10">
+        <v>13313493769</v>
+      </c>
       <c r="F34" s="12"/>
       <c r="G34" s="13"/>
       <c r="H34" s="13"/>
@@ -1754,7 +1652,7 @@
   <dimension ref="E6:I35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection activeCell="E17" sqref="E17:H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1766,10 +1664,10 @@
   <sheetData>
     <row r="6" spans="5:9">
       <c r="E6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F6" s="35" t="s">
-        <v>8</v>
+        <v>29</v>
+      </c>
+      <c r="F6" s="39" t="s">
+        <v>30</v>
       </c>
       <c r="G6" s="1">
         <v>17050685132</v>
@@ -1783,10 +1681,10 @@
     </row>
     <row r="7" spans="5:9">
       <c r="E7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F7" s="35" t="s">
-        <v>11</v>
+        <v>31</v>
+      </c>
+      <c r="F7" s="39" t="s">
+        <v>32</v>
       </c>
       <c r="G7" s="1">
         <v>17198008619</v>
@@ -1800,10 +1698,10 @@
     </row>
     <row r="8" spans="5:9">
       <c r="E8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F8" s="35" t="s">
-        <v>14</v>
+        <v>33</v>
+      </c>
+      <c r="F8" s="39" t="s">
+        <v>34</v>
       </c>
       <c r="G8" s="1">
         <v>17025472447</v>
@@ -1817,10 +1715,10 @@
     </row>
     <row r="9" spans="5:9">
       <c r="E9" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F9" s="36" t="s">
-        <v>17</v>
+        <v>35</v>
+      </c>
+      <c r="F9" s="40" t="s">
+        <v>36</v>
       </c>
       <c r="G9" s="4">
         <v>17025472447</v>
@@ -1834,10 +1732,10 @@
     </row>
     <row r="10" spans="5:9">
       <c r="E10" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F10" s="37" t="s">
-        <v>19</v>
+        <v>37</v>
+      </c>
+      <c r="F10" s="41" t="s">
+        <v>38</v>
       </c>
       <c r="G10" s="7">
         <v>17147715197</v>
@@ -1851,10 +1749,10 @@
     </row>
     <row r="11" spans="5:9">
       <c r="E11" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="F11" s="39" t="s">
-        <v>47</v>
+        <v>39</v>
+      </c>
+      <c r="F11" s="37" t="s">
+        <v>40</v>
       </c>
       <c r="G11" s="10">
         <v>17190092942</v>
@@ -1868,10 +1766,10 @@
     </row>
     <row r="12" spans="5:9">
       <c r="E12" s="10" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G12" s="10">
         <v>17136341196</v>
@@ -1885,10 +1783,10 @@
     </row>
     <row r="13" spans="5:9">
       <c r="E13" s="13" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="G13" s="10">
         <v>17040214075</v>
@@ -1902,10 +1800,10 @@
     </row>
     <row r="14" spans="5:9">
       <c r="E14" s="10" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="F14" s="11" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="G14" s="10">
         <v>17050683431</v>
@@ -1919,10 +1817,10 @@
     </row>
     <row r="15" spans="5:9">
       <c r="E15" s="10" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="G15" s="10">
         <v>15607045070</v>
@@ -1936,10 +1834,10 @@
     </row>
     <row r="16" spans="5:9">
       <c r="E16" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="F16" s="14" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="G16">
         <v>17198212532</v>
@@ -1950,10 +1848,18 @@
       <c r="I16" s="10"/>
     </row>
     <row r="17" spans="5:9">
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="10"/>
+      <c r="E17" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="F17" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="G17" s="10">
+        <v>17153075010</v>
+      </c>
+      <c r="H17" s="12">
+        <v>13135677522</v>
+      </c>
       <c r="I17" s="10"/>
     </row>
     <row r="18" spans="5:9">

--- a/miaoTemp/武汉/楚天/汉阳用户.xlsx
+++ b/miaoTemp/武汉/楚天/汉阳用户.xlsx
@@ -1219,7 +1219,7 @@
   <dimension ref="C7:L45"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="H33" sqref="H33"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>

--- a/miaoTemp/武汉/楚天/汉阳用户.xlsx
+++ b/miaoTemp/武汉/楚天/汉阳用户.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
   <si>
     <t>姓名</t>
   </si>
@@ -92,88 +92,100 @@
     <t>500382199808086442</t>
   </si>
   <si>
+    <t>黄雨琪</t>
+  </si>
+  <si>
+    <t>420503200104235527</t>
+  </si>
+  <si>
+    <t>杜冰璇</t>
+  </si>
+  <si>
+    <t>420117200009105528</t>
+  </si>
+  <si>
+    <t>周秦思雯</t>
+  </si>
+  <si>
+    <t>420111199912013124</t>
+  </si>
+  <si>
+    <t>张远媛</t>
+  </si>
+  <si>
+    <t>612426199806235426</t>
+  </si>
+  <si>
+    <t>黄露丹</t>
+  </si>
+  <si>
+    <t>420802199908260028</t>
+  </si>
+  <si>
+    <t>高佩</t>
+  </si>
+  <si>
+    <t>610502200007165626</t>
+  </si>
+  <si>
+    <t xml:space="preserve">李梦希 </t>
+  </si>
+  <si>
+    <t>420821199403092363</t>
+  </si>
+  <si>
+    <t>李佳</t>
+  </si>
+  <si>
+    <t>411524199506020022</t>
+  </si>
+  <si>
+    <t>冯书语</t>
+  </si>
+  <si>
+    <t>422822199801240040</t>
+  </si>
+  <si>
+    <t>桂子艺</t>
+  </si>
+  <si>
+    <t>42080420021220232X</t>
+  </si>
+  <si>
+    <t>张倩</t>
+  </si>
+  <si>
+    <t>370125199612145946</t>
+  </si>
+  <si>
+    <t>王露露</t>
+  </si>
+  <si>
+    <t>37078619970104064X</t>
+  </si>
+  <si>
+    <t>徐春秀</t>
+  </si>
+  <si>
+    <t>37150219970418932X</t>
+  </si>
+  <si>
+    <t>赵倩</t>
+  </si>
+  <si>
+    <t>340602199803182843</t>
+  </si>
+  <si>
+    <t>周月月</t>
+  </si>
+  <si>
+    <t>411527199909155545</t>
+  </si>
+  <si>
     <t>何丹</t>
   </si>
   <si>
     <t>511922199909123926</t>
-  </si>
-  <si>
-    <t>黄雨琪</t>
-  </si>
-  <si>
-    <t>420503200104235527</t>
-  </si>
-  <si>
-    <t>张远媛</t>
-  </si>
-  <si>
-    <t>612426199806235426</t>
-  </si>
-  <si>
-    <t>黄露丹</t>
-  </si>
-  <si>
-    <t>420802199908260028</t>
-  </si>
-  <si>
-    <t>高佩</t>
-  </si>
-  <si>
-    <t>610502200007165626</t>
-  </si>
-  <si>
-    <t xml:space="preserve">李梦希 </t>
-  </si>
-  <si>
-    <t>420821199403092363</t>
-  </si>
-  <si>
-    <t>李佳</t>
-  </si>
-  <si>
-    <t>411524199506020022</t>
-  </si>
-  <si>
-    <t>冯书语</t>
-  </si>
-  <si>
-    <t>422822199801240040</t>
-  </si>
-  <si>
-    <t>桂子艺</t>
-  </si>
-  <si>
-    <t>42080420021220232X</t>
-  </si>
-  <si>
-    <t>张倩</t>
-  </si>
-  <si>
-    <t>370125199612145946</t>
-  </si>
-  <si>
-    <t>王露露</t>
-  </si>
-  <si>
-    <t>37078619970104064X</t>
-  </si>
-  <si>
-    <t>徐春秀</t>
-  </si>
-  <si>
-    <t>37150219970418932X</t>
-  </si>
-  <si>
-    <t>赵倩</t>
-  </si>
-  <si>
-    <t>340602199803182843</t>
-  </si>
-  <si>
-    <t>周月月</t>
-  </si>
-  <si>
-    <t>411527199909155545</t>
   </si>
 </sst>
 </file>
@@ -832,7 +844,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
@@ -863,6 +875,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -893,10 +906,10 @@
     <xf numFmtId="49" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" quotePrefix="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" quotePrefix="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" quotePrefix="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" quotePrefix="1"/>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" quotePrefix="1"/>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1219,37 +1232,37 @@
   <dimension ref="C7:L45"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="J44" sqref="J44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="3" max="3" width="7.5" customWidth="1"/>
+    <col min="3" max="3" width="8.875" customWidth="1"/>
     <col min="4" max="4" width="20.375" style="14" customWidth="1"/>
     <col min="5" max="5" width="12.625" customWidth="1"/>
     <col min="6" max="6" width="12.625" style="15" customWidth="1"/>
-    <col min="7" max="7" width="11" style="20" customWidth="1"/>
-    <col min="8" max="8" width="34.25" style="20" customWidth="1"/>
+    <col min="7" max="7" width="11" style="21" customWidth="1"/>
+    <col min="8" max="8" width="34.25" style="21" customWidth="1"/>
     <col min="13" max="14" width="12.625"/>
   </cols>
   <sheetData>
     <row r="7" spans="3:12">
-      <c r="C7" s="21" t="s">
+      <c r="C7" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="D7" s="22" t="s">
+      <c r="D7" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="E7" s="21" t="s">
+      <c r="E7" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="F7" s="23" t="s">
+      <c r="F7" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="G7" s="24" t="s">
+      <c r="G7" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="H7" s="24"/>
+      <c r="H7" s="25"/>
       <c r="L7" t="s">
         <v>5</v>
       </c>
@@ -1312,7 +1325,7 @@
       <c r="E13" s="7"/>
       <c r="F13" s="9"/>
       <c r="G13" s="18"/>
-      <c r="H13" s="25"/>
+      <c r="H13" s="26"/>
     </row>
     <row r="14" spans="3:8">
       <c r="C14" s="10" t="s">
@@ -1327,36 +1340,36 @@
       <c r="H14" s="13"/>
     </row>
     <row r="15" spans="3:8">
-      <c r="C15" s="26" t="s">
+      <c r="C15" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="35" t="s">
+      <c r="D15" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="E15" s="26">
+      <c r="E15" s="27">
         <v>17129530447</v>
       </c>
-      <c r="F15" s="28">
+      <c r="F15" s="29">
         <v>17762459127</v>
       </c>
-      <c r="G15" s="29">
+      <c r="G15" s="30">
         <v>44902</v>
       </c>
-      <c r="H15" s="30" t="s">
+      <c r="H15" s="31" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="16" spans="3:8">
-      <c r="C16" s="31" t="s">
+      <c r="C16" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="D16" s="36" t="s">
+      <c r="D16" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="E16" s="31">
+      <c r="E16" s="32">
         <v>17152022762</v>
       </c>
-      <c r="F16" s="33">
+      <c r="F16" s="34">
         <v>13129949932</v>
       </c>
       <c r="G16" s="19"/>
@@ -1369,7 +1382,7 @@
       <c r="D17" s="11"/>
       <c r="E17" s="10"/>
       <c r="F17" s="12"/>
-      <c r="G17" s="34"/>
+      <c r="G17" s="35"/>
       <c r="H17" s="13"/>
     </row>
     <row r="18" spans="3:8">
@@ -1377,14 +1390,14 @@
       <c r="D18" s="11"/>
       <c r="E18" s="10"/>
       <c r="F18" s="12"/>
-      <c r="G18" s="34"/>
+      <c r="G18" s="35"/>
       <c r="H18" s="13"/>
     </row>
     <row r="19" spans="3:8">
-      <c r="C19" s="31"/>
-      <c r="D19" s="32"/>
-      <c r="E19" s="31"/>
-      <c r="F19" s="33"/>
+      <c r="C19" s="32"/>
+      <c r="D19" s="33"/>
+      <c r="E19" s="32"/>
+      <c r="F19" s="34"/>
       <c r="G19" s="19"/>
       <c r="H19" s="13"/>
     </row>
@@ -1424,7 +1437,7 @@
       <c r="C24" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D24" s="37" t="s">
+      <c r="D24" s="38" t="s">
         <v>18</v>
       </c>
       <c r="E24" s="10"/>
@@ -1481,39 +1494,31 @@
       <c r="D28" s="8"/>
       <c r="E28" s="7"/>
       <c r="F28" s="9"/>
-      <c r="G28" s="25"/>
-      <c r="H28" s="25"/>
+      <c r="G28" s="26"/>
+      <c r="H28" s="26"/>
     </row>
     <row r="29" spans="3:8">
       <c r="C29" s="7"/>
       <c r="D29" s="8"/>
       <c r="E29" s="7"/>
       <c r="F29" s="9"/>
-      <c r="G29" s="25"/>
-      <c r="H29" s="25"/>
+      <c r="G29" s="26"/>
+      <c r="H29" s="26"/>
     </row>
     <row r="30" spans="3:8">
-      <c r="C30" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="D30" s="38" t="s">
-        <v>26</v>
-      </c>
-      <c r="E30" s="10">
-        <v>15734965373</v>
-      </c>
-      <c r="F30" s="10">
-        <v>15671850433</v>
-      </c>
+      <c r="C30" s="10"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="10"/>
       <c r="G30" s="13"/>
       <c r="H30" s="13"/>
     </row>
     <row r="31" spans="3:8">
       <c r="C31" s="10" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D31" s="11" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E31" s="10">
         <v>17129530447</v>
@@ -1533,22 +1538,34 @@
       <c r="H32" s="13"/>
     </row>
     <row r="33" spans="3:8">
-      <c r="C33" s="10"/>
-      <c r="D33" s="11"/>
+      <c r="C33" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" s="11" t="s">
+        <v>28</v>
+      </c>
       <c r="E33" s="10">
         <v>17050684778</v>
       </c>
-      <c r="F33" s="12"/>
+      <c r="F33" s="12">
+        <v>18971556796</v>
+      </c>
       <c r="G33" s="13"/>
       <c r="H33" s="13"/>
     </row>
     <row r="34" spans="3:8">
-      <c r="C34" s="10"/>
-      <c r="D34" s="11"/>
+      <c r="C34" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D34" s="11" t="s">
+        <v>30</v>
+      </c>
       <c r="E34" s="10">
         <v>13313493769</v>
       </c>
-      <c r="F34" s="12"/>
+      <c r="F34" s="12">
+        <v>13419591201</v>
+      </c>
       <c r="G34" s="13"/>
       <c r="H34" s="13"/>
     </row>
@@ -1652,7 +1669,7 @@
   <dimension ref="E6:I35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E17" sqref="E17:H17"/>
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1664,10 +1681,10 @@
   <sheetData>
     <row r="6" spans="5:9">
       <c r="E6" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F6" s="39" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G6" s="1">
         <v>17050685132</v>
@@ -1681,10 +1698,10 @@
     </row>
     <row r="7" spans="5:9">
       <c r="E7" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F7" s="39" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G7" s="1">
         <v>17198008619</v>
@@ -1698,10 +1715,10 @@
     </row>
     <row r="8" spans="5:9">
       <c r="E8" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F8" s="39" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G8" s="1">
         <v>17025472447</v>
@@ -1715,10 +1732,10 @@
     </row>
     <row r="9" spans="5:9">
       <c r="E9" s="4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F9" s="40" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G9" s="4">
         <v>17025472447</v>
@@ -1732,10 +1749,10 @@
     </row>
     <row r="10" spans="5:9">
       <c r="E10" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F10" s="41" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G10" s="7">
         <v>17147715197</v>
@@ -1749,10 +1766,10 @@
     </row>
     <row r="11" spans="5:9">
       <c r="E11" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="F11" s="37" t="s">
-        <v>40</v>
+        <v>41</v>
+      </c>
+      <c r="F11" s="38" t="s">
+        <v>42</v>
       </c>
       <c r="G11" s="10">
         <v>17190092942</v>
@@ -1766,10 +1783,10 @@
     </row>
     <row r="12" spans="5:9">
       <c r="E12" s="10" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G12" s="10">
         <v>17136341196</v>
@@ -1783,10 +1800,10 @@
     </row>
     <row r="13" spans="5:9">
       <c r="E13" s="13" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G13" s="10">
         <v>17040214075</v>
@@ -1800,10 +1817,10 @@
     </row>
     <row r="14" spans="5:9">
       <c r="E14" s="10" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F14" s="11" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G14" s="10">
         <v>17050683431</v>
@@ -1817,10 +1834,10 @@
     </row>
     <row r="15" spans="5:9">
       <c r="E15" s="10" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G15" s="10">
         <v>15607045070</v>
@@ -1834,10 +1851,10 @@
     </row>
     <row r="16" spans="5:9">
       <c r="E16" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F16" s="14" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G16">
         <v>17198212532</v>
@@ -1849,10 +1866,10 @@
     </row>
     <row r="17" spans="5:9">
       <c r="E17" s="10" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G17" s="10">
         <v>17153075010</v>
@@ -1863,11 +1880,21 @@
       <c r="I17" s="10"/>
     </row>
     <row r="18" spans="5:9">
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="10"/>
-      <c r="I18" s="10"/>
+      <c r="E18" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="F18" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="G18" s="10">
+        <v>15734965373</v>
+      </c>
+      <c r="H18" s="10">
+        <v>15671850433</v>
+      </c>
+      <c r="I18" s="20">
+        <v>44930</v>
+      </c>
     </row>
     <row r="19" spans="5:9">
       <c r="E19" s="10"/>

--- a/miaoTemp/武汉/楚天/汉阳用户.xlsx
+++ b/miaoTemp/武汉/楚天/汉阳用户.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView windowWidth="21000" windowHeight="11670"/>
   </bookViews>
   <sheets>
     <sheet name="汉阳" sheetId="1" r:id="rId1"/>
@@ -1232,7 +1232,7 @@
   <dimension ref="C7:L45"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="J44" sqref="J44"/>
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1669,7 +1669,7 @@
   <dimension ref="E6:I35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>

--- a/miaoTemp/武汉/楚天/汉阳用户.xlsx
+++ b/miaoTemp/武汉/楚天/汉阳用户.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CSharp\DotnetMiao\miaoTemp\武汉\楚天\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BC1ECCF-0AA3-4B6D-9187-12058AC731B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C8652E8-C14E-4D18-988A-D18DFC3BAB6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="70">
   <si>
     <t>姓名</t>
   </si>
@@ -223,6 +223,26 @@
   </si>
   <si>
     <t>4. 点击【登录】- 【用户注册】进行注册。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wuhan2018</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>童雯静</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">420104200107233329 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yww20020119</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jiyue0228</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -230,7 +250,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -241,6 +261,14 @@
     <font>
       <sz val="9"/>
       <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -310,7 +338,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
@@ -361,6 +389,9 @@
     <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -638,8 +669,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C7:L45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L22" sqref="L22"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -647,7 +678,7 @@
     <col min="3" max="3" width="8.875" customWidth="1"/>
     <col min="4" max="4" width="20.375" style="10" customWidth="1"/>
     <col min="5" max="6" width="12.625" customWidth="1"/>
-    <col min="7" max="7" width="11" style="16" customWidth="1"/>
+    <col min="7" max="7" width="15.25" style="16" customWidth="1"/>
     <col min="8" max="8" width="34.25" style="16" customWidth="1"/>
     <col min="13" max="14" width="12.625"/>
   </cols>
@@ -986,7 +1017,9 @@
         <v>13476121933</v>
       </c>
       <c r="G35" s="9"/>
-      <c r="H35" s="9"/>
+      <c r="H35" s="30" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="36" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C36" s="7" t="s">
@@ -1000,7 +1033,9 @@
         <v>15927000608</v>
       </c>
       <c r="G36" s="9"/>
-      <c r="H36" s="9"/>
+      <c r="H36" s="9" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="37" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C37" s="7" t="s">
@@ -1014,15 +1049,25 @@
         <v>18337102284</v>
       </c>
       <c r="G37" s="9"/>
-      <c r="H37" s="9"/>
+      <c r="H37" s="9" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="38" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C38" s="7"/>
-      <c r="D38" s="8"/>
+      <c r="C38" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="D38" s="8" t="s">
+        <v>67</v>
+      </c>
       <c r="E38" s="7"/>
-      <c r="F38" s="7"/>
+      <c r="F38" s="7">
+        <v>13297043329</v>
+      </c>
       <c r="G38" s="9"/>
-      <c r="H38" s="9"/>
+      <c r="H38" s="9">
+        <v>152788</v>
+      </c>
     </row>
     <row r="39" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C39" s="7"/>

--- a/miaoTemp/武汉/楚天/汉阳用户.xlsx
+++ b/miaoTemp/武汉/楚天/汉阳用户.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CSharp\DotnetMiao\miaoTemp\武汉\楚天\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C8652E8-C14E-4D18-988A-D18DFC3BAB6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FDC84E7-4D1A-4DBC-AA23-F0FF4AA3F818}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -670,7 +670,7 @@
   <dimension ref="C7:L45"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="H35" sqref="H35"/>
+      <selection activeCell="C36" sqref="C36:H36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1022,20 +1022,12 @@
       </c>
     </row>
     <row r="36" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C36" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="D36" s="8" t="s">
-        <v>60</v>
-      </c>
+      <c r="C36" s="7"/>
+      <c r="D36" s="8"/>
       <c r="E36" s="7"/>
-      <c r="F36" s="7">
-        <v>15927000608</v>
-      </c>
+      <c r="F36" s="7"/>
       <c r="G36" s="9"/>
-      <c r="H36" s="9" t="s">
-        <v>68</v>
-      </c>
+      <c r="H36" s="9"/>
     </row>
     <row r="37" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C37" s="7" t="s">
@@ -1054,20 +1046,12 @@
       </c>
     </row>
     <row r="38" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C38" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="D38" s="8" t="s">
-        <v>67</v>
-      </c>
+      <c r="C38" s="7"/>
+      <c r="D38" s="8"/>
       <c r="E38" s="7"/>
-      <c r="F38" s="7">
-        <v>13297043329</v>
-      </c>
+      <c r="F38" s="7"/>
       <c r="G38" s="9"/>
-      <c r="H38" s="9">
-        <v>152788</v>
-      </c>
+      <c r="H38" s="9"/>
     </row>
     <row r="39" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C39" s="7"/>
@@ -1134,10 +1118,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="E6:I35"/>
+  <dimension ref="E6:J35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E19" sqref="E19:H20"/>
+      <selection activeCell="E22" sqref="E22:J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1332,7 +1316,7 @@
       </c>
       <c r="I16" s="7"/>
     </row>
-    <row r="17" spans="5:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="5:10" x14ac:dyDescent="0.2">
       <c r="E17" s="7" t="s">
         <v>53</v>
       </c>
@@ -1347,7 +1331,7 @@
       </c>
       <c r="I17" s="7"/>
     </row>
-    <row r="18" spans="5:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="5:10" x14ac:dyDescent="0.2">
       <c r="E18" s="7" t="s">
         <v>55</v>
       </c>
@@ -1364,7 +1348,7 @@
         <v>44930</v>
       </c>
     </row>
-    <row r="19" spans="5:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="5:10" x14ac:dyDescent="0.2">
       <c r="E19" s="7" t="s">
         <v>27</v>
       </c>
@@ -1379,7 +1363,7 @@
       </c>
       <c r="I19" s="7"/>
     </row>
-    <row r="20" spans="5:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="5:10" x14ac:dyDescent="0.2">
       <c r="E20" s="7" t="s">
         <v>29</v>
       </c>
@@ -1394,84 +1378,102 @@
       </c>
       <c r="I20" s="7"/>
     </row>
-    <row r="21" spans="5:9" x14ac:dyDescent="0.2">
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
+    <row r="21" spans="5:10" x14ac:dyDescent="0.2">
+      <c r="E21" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="F21" s="8" t="s">
+        <v>67</v>
+      </c>
       <c r="G21" s="7"/>
-      <c r="H21" s="7"/>
-      <c r="I21" s="7"/>
-    </row>
-    <row r="22" spans="5:9" x14ac:dyDescent="0.2">
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
+      <c r="H21" s="7">
+        <v>13297043329</v>
+      </c>
+      <c r="I21" s="9"/>
+      <c r="J21" s="9">
+        <v>152788</v>
+      </c>
+    </row>
+    <row r="22" spans="5:10" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="E22" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>60</v>
+      </c>
       <c r="G22" s="7"/>
-      <c r="H22" s="7"/>
-      <c r="I22" s="7"/>
-    </row>
-    <row r="23" spans="5:9" x14ac:dyDescent="0.2">
+      <c r="H22" s="7">
+        <v>15927000608</v>
+      </c>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="23" spans="5:10" x14ac:dyDescent="0.2">
       <c r="E23" s="7"/>
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
       <c r="H23" s="7"/>
       <c r="I23" s="7"/>
     </row>
-    <row r="24" spans="5:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="5:10" x14ac:dyDescent="0.2">
       <c r="E24" s="7"/>
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
       <c r="H24" s="7"/>
       <c r="I24" s="7"/>
     </row>
-    <row r="25" spans="5:9" x14ac:dyDescent="0.2">
+    <row r="25" spans="5:10" x14ac:dyDescent="0.2">
       <c r="E25" s="7"/>
       <c r="F25" s="7"/>
       <c r="G25" s="7"/>
       <c r="H25" s="7"/>
       <c r="I25" s="7"/>
     </row>
-    <row r="26" spans="5:9" x14ac:dyDescent="0.2">
+    <row r="26" spans="5:10" x14ac:dyDescent="0.2">
       <c r="E26" s="7"/>
       <c r="F26" s="7"/>
       <c r="G26" s="7"/>
       <c r="H26" s="7"/>
       <c r="I26" s="7"/>
     </row>
-    <row r="27" spans="5:9" x14ac:dyDescent="0.2">
+    <row r="27" spans="5:10" x14ac:dyDescent="0.2">
       <c r="E27" s="7"/>
       <c r="F27" s="7"/>
       <c r="G27" s="7"/>
       <c r="H27" s="7"/>
       <c r="I27" s="7"/>
     </row>
-    <row r="28" spans="5:9" x14ac:dyDescent="0.2">
+    <row r="28" spans="5:10" x14ac:dyDescent="0.2">
       <c r="E28" s="7"/>
       <c r="F28" s="7"/>
       <c r="G28" s="7"/>
       <c r="H28" s="7"/>
       <c r="I28" s="7"/>
     </row>
-    <row r="29" spans="5:9" x14ac:dyDescent="0.2">
+    <row r="29" spans="5:10" x14ac:dyDescent="0.2">
       <c r="E29" s="7"/>
       <c r="F29" s="7"/>
       <c r="G29" s="7"/>
       <c r="H29" s="7"/>
       <c r="I29" s="7"/>
     </row>
-    <row r="30" spans="5:9" x14ac:dyDescent="0.2">
+    <row r="30" spans="5:10" x14ac:dyDescent="0.2">
       <c r="E30" s="7"/>
       <c r="F30" s="7"/>
       <c r="G30" s="7"/>
       <c r="H30" s="7"/>
       <c r="I30" s="7"/>
     </row>
-    <row r="31" spans="5:9" x14ac:dyDescent="0.2">
+    <row r="31" spans="5:10" x14ac:dyDescent="0.2">
       <c r="E31" s="7"/>
       <c r="F31" s="7"/>
       <c r="G31" s="7"/>
       <c r="H31" s="7"/>
       <c r="I31" s="7"/>
     </row>
-    <row r="32" spans="5:9" x14ac:dyDescent="0.2">
+    <row r="32" spans="5:10" x14ac:dyDescent="0.2">
       <c r="E32" s="7"/>
       <c r="F32" s="7"/>
       <c r="G32" s="7"/>

--- a/miaoTemp/武汉/楚天/汉阳用户.xlsx
+++ b/miaoTemp/武汉/楚天/汉阳用户.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CSharp\DotnetMiao\miaoTemp\武汉\楚天\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FDC84E7-4D1A-4DBC-AA23-F0FF4AA3F818}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E7A7C4C-0F46-42F7-93D3-A08AB39D9090}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="汉阳" sheetId="1" r:id="rId1"/>
@@ -119,9 +119,6 @@
     <t>张远媛</t>
   </si>
   <si>
-    <t>612426199806235426</t>
-  </si>
-  <si>
     <t>黄露丹</t>
   </si>
   <si>
@@ -243,6 +240,10 @@
   </si>
   <si>
     <t>jiyue0228</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>612426199806235426</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -669,7 +670,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C7:L45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C36" sqref="C36:H36"/>
     </sheetView>
   </sheetViews>
@@ -830,7 +831,7 @@
       <c r="G18" s="14"/>
       <c r="H18" s="9"/>
       <c r="L18" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="19" spans="3:12" x14ac:dyDescent="0.2">
@@ -874,7 +875,7 @@
       <c r="G22" s="9"/>
       <c r="H22" s="9"/>
       <c r="L22" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="23" spans="3:12" x14ac:dyDescent="0.2">
@@ -1007,10 +1008,10 @@
     </row>
     <row r="35" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C35" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="D35" s="8" t="s">
         <v>57</v>
-      </c>
-      <c r="D35" s="8" t="s">
-        <v>58</v>
       </c>
       <c r="E35" s="7"/>
       <c r="F35" s="7">
@@ -1018,7 +1019,7 @@
       </c>
       <c r="G35" s="9"/>
       <c r="H35" s="30" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="36" spans="3:8" x14ac:dyDescent="0.2">
@@ -1031,10 +1032,10 @@
     </row>
     <row r="37" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C37" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D37" s="8" t="s">
         <v>61</v>
-      </c>
-      <c r="D37" s="8" t="s">
-        <v>62</v>
       </c>
       <c r="E37" s="7"/>
       <c r="F37" s="7">
@@ -1042,7 +1043,7 @@
       </c>
       <c r="G37" s="9"/>
       <c r="H37" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="38" spans="3:8" x14ac:dyDescent="0.2">
@@ -1120,8 +1121,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="E6:J35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E22" sqref="E22:J22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1136,7 +1137,7 @@
         <v>31</v>
       </c>
       <c r="F6" s="26" t="s">
-        <v>32</v>
+        <v>69</v>
       </c>
       <c r="G6" s="1">
         <v>17050685132</v>
@@ -1150,10 +1151,10 @@
     </row>
     <row r="7" spans="5:9" x14ac:dyDescent="0.2">
       <c r="E7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F7" s="26" t="s">
         <v>33</v>
-      </c>
-      <c r="F7" s="26" t="s">
-        <v>34</v>
       </c>
       <c r="G7" s="1">
         <v>17198008619</v>
@@ -1167,10 +1168,10 @@
     </row>
     <row r="8" spans="5:9" x14ac:dyDescent="0.2">
       <c r="E8" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F8" s="26" t="s">
         <v>35</v>
-      </c>
-      <c r="F8" s="26" t="s">
-        <v>36</v>
       </c>
       <c r="G8" s="1">
         <v>17025472447</v>
@@ -1184,10 +1185,10 @@
     </row>
     <row r="9" spans="5:9" x14ac:dyDescent="0.2">
       <c r="E9" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F9" s="27" t="s">
         <v>37</v>
-      </c>
-      <c r="F9" s="27" t="s">
-        <v>38</v>
       </c>
       <c r="G9" s="3">
         <v>17025472447</v>
@@ -1201,10 +1202,10 @@
     </row>
     <row r="10" spans="5:9" x14ac:dyDescent="0.2">
       <c r="E10" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F10" s="28" t="s">
         <v>39</v>
-      </c>
-      <c r="F10" s="28" t="s">
-        <v>40</v>
       </c>
       <c r="G10" s="5">
         <v>17147715197</v>
@@ -1218,10 +1219,10 @@
     </row>
     <row r="11" spans="5:9" x14ac:dyDescent="0.2">
       <c r="E11" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F11" s="25" t="s">
         <v>41</v>
-      </c>
-      <c r="F11" s="25" t="s">
-        <v>42</v>
       </c>
       <c r="G11" s="7">
         <v>17190092942</v>
@@ -1235,10 +1236,10 @@
     </row>
     <row r="12" spans="5:9" x14ac:dyDescent="0.2">
       <c r="E12" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F12" s="8" t="s">
         <v>43</v>
-      </c>
-      <c r="F12" s="8" t="s">
-        <v>44</v>
       </c>
       <c r="G12" s="7">
         <v>17136341196</v>
@@ -1252,10 +1253,10 @@
     </row>
     <row r="13" spans="5:9" x14ac:dyDescent="0.2">
       <c r="E13" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" s="8" t="s">
         <v>45</v>
-      </c>
-      <c r="F13" s="8" t="s">
-        <v>46</v>
       </c>
       <c r="G13" s="7">
         <v>17040214075</v>
@@ -1269,10 +1270,10 @@
     </row>
     <row r="14" spans="5:9" x14ac:dyDescent="0.2">
       <c r="E14" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="F14" s="8" t="s">
         <v>47</v>
-      </c>
-      <c r="F14" s="8" t="s">
-        <v>48</v>
       </c>
       <c r="G14" s="7">
         <v>17050683431</v>
@@ -1286,10 +1287,10 @@
     </row>
     <row r="15" spans="5:9" x14ac:dyDescent="0.2">
       <c r="E15" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="F15" s="8" t="s">
         <v>49</v>
-      </c>
-      <c r="F15" s="8" t="s">
-        <v>50</v>
       </c>
       <c r="G15" s="7">
         <v>15607045070</v>
@@ -1303,10 +1304,10 @@
     </row>
     <row r="16" spans="5:9" x14ac:dyDescent="0.2">
       <c r="E16" t="s">
+        <v>50</v>
+      </c>
+      <c r="F16" s="10" t="s">
         <v>51</v>
-      </c>
-      <c r="F16" s="10" t="s">
-        <v>52</v>
       </c>
       <c r="G16">
         <v>17198212532</v>
@@ -1318,10 +1319,10 @@
     </row>
     <row r="17" spans="5:10" x14ac:dyDescent="0.2">
       <c r="E17" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="F17" s="8" t="s">
         <v>53</v>
-      </c>
-      <c r="F17" s="8" t="s">
-        <v>54</v>
       </c>
       <c r="G17" s="7">
         <v>17153075010</v>
@@ -1333,10 +1334,10 @@
     </row>
     <row r="18" spans="5:10" x14ac:dyDescent="0.2">
       <c r="E18" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="F18" s="29" t="s">
         <v>55</v>
-      </c>
-      <c r="F18" s="29" t="s">
-        <v>56</v>
       </c>
       <c r="G18" s="7">
         <v>15734965373</v>
@@ -1380,10 +1381,10 @@
     </row>
     <row r="21" spans="5:10" x14ac:dyDescent="0.2">
       <c r="E21" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="F21" s="8" t="s">
         <v>66</v>
-      </c>
-      <c r="F21" s="8" t="s">
-        <v>67</v>
       </c>
       <c r="G21" s="7"/>
       <c r="H21" s="7">
@@ -1396,10 +1397,10 @@
     </row>
     <row r="22" spans="5:10" ht="28.5" x14ac:dyDescent="0.2">
       <c r="E22" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F22" s="8" t="s">
         <v>59</v>
-      </c>
-      <c r="F22" s="8" t="s">
-        <v>60</v>
       </c>
       <c r="G22" s="7"/>
       <c r="H22" s="7">
@@ -1407,7 +1408,7 @@
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="23" spans="5:10" x14ac:dyDescent="0.2">

--- a/miaoTemp/武汉/楚天/汉阳用户.xlsx
+++ b/miaoTemp/武汉/楚天/汉阳用户.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CSharp\DotnetMiao\miaoTemp\武汉\楚天\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E7A7C4C-0F46-42F7-93D3-A08AB39D9090}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2036DDB8-193C-42E7-98A5-9D33EB03CD51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="汉阳" sheetId="1" r:id="rId1"/>
@@ -101,9 +101,6 @@
     <t>黄雨琪</t>
   </si>
   <si>
-    <t>420503200104235527</t>
-  </si>
-  <si>
     <t>杜冰璇</t>
   </si>
   <si>
@@ -244,6 +241,10 @@
   </si>
   <si>
     <t>612426199806235426</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>420503200104235527</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -670,8 +671,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C7:L45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C36" sqref="C36:H36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -831,7 +832,7 @@
       <c r="G18" s="14"/>
       <c r="H18" s="9"/>
       <c r="L18" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="19" spans="3:12" x14ac:dyDescent="0.2">
@@ -875,7 +876,7 @@
       <c r="G22" s="9"/>
       <c r="H22" s="9"/>
       <c r="L22" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="23" spans="3:12" x14ac:dyDescent="0.2">
@@ -971,7 +972,7 @@
         <v>25</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>26</v>
+        <v>69</v>
       </c>
       <c r="E31" s="7">
         <v>17129530447</v>
@@ -1008,10 +1009,10 @@
     </row>
     <row r="35" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C35" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D35" s="8" t="s">
         <v>56</v>
-      </c>
-      <c r="D35" s="8" t="s">
-        <v>57</v>
       </c>
       <c r="E35" s="7"/>
       <c r="F35" s="7">
@@ -1019,7 +1020,7 @@
       </c>
       <c r="G35" s="9"/>
       <c r="H35" s="30" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="36" spans="3:8" x14ac:dyDescent="0.2">
@@ -1032,10 +1033,10 @@
     </row>
     <row r="37" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C37" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="D37" s="8" t="s">
         <v>60</v>
-      </c>
-      <c r="D37" s="8" t="s">
-        <v>61</v>
       </c>
       <c r="E37" s="7"/>
       <c r="F37" s="7">
@@ -1043,7 +1044,7 @@
       </c>
       <c r="G37" s="9"/>
       <c r="H37" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="38" spans="3:8" x14ac:dyDescent="0.2">
@@ -1121,8 +1122,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="E6:J35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1134,10 +1135,10 @@
   <sheetData>
     <row r="6" spans="5:9" x14ac:dyDescent="0.2">
       <c r="E6" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F6" s="26" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G6" s="1">
         <v>17050685132</v>
@@ -1151,10 +1152,10 @@
     </row>
     <row r="7" spans="5:9" x14ac:dyDescent="0.2">
       <c r="E7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" s="26" t="s">
         <v>32</v>
-      </c>
-      <c r="F7" s="26" t="s">
-        <v>33</v>
       </c>
       <c r="G7" s="1">
         <v>17198008619</v>
@@ -1168,10 +1169,10 @@
     </row>
     <row r="8" spans="5:9" x14ac:dyDescent="0.2">
       <c r="E8" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F8" s="26" t="s">
         <v>34</v>
-      </c>
-      <c r="F8" s="26" t="s">
-        <v>35</v>
       </c>
       <c r="G8" s="1">
         <v>17025472447</v>
@@ -1185,10 +1186,10 @@
     </row>
     <row r="9" spans="5:9" x14ac:dyDescent="0.2">
       <c r="E9" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F9" s="27" t="s">
         <v>36</v>
-      </c>
-      <c r="F9" s="27" t="s">
-        <v>37</v>
       </c>
       <c r="G9" s="3">
         <v>17025472447</v>
@@ -1202,10 +1203,10 @@
     </row>
     <row r="10" spans="5:9" x14ac:dyDescent="0.2">
       <c r="E10" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="F10" s="28" t="s">
         <v>38</v>
-      </c>
-      <c r="F10" s="28" t="s">
-        <v>39</v>
       </c>
       <c r="G10" s="5">
         <v>17147715197</v>
@@ -1219,10 +1220,10 @@
     </row>
     <row r="11" spans="5:9" x14ac:dyDescent="0.2">
       <c r="E11" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F11" s="25" t="s">
         <v>40</v>
-      </c>
-      <c r="F11" s="25" t="s">
-        <v>41</v>
       </c>
       <c r="G11" s="7">
         <v>17190092942</v>
@@ -1236,10 +1237,10 @@
     </row>
     <row r="12" spans="5:9" x14ac:dyDescent="0.2">
       <c r="E12" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F12" s="8" t="s">
         <v>42</v>
-      </c>
-      <c r="F12" s="8" t="s">
-        <v>43</v>
       </c>
       <c r="G12" s="7">
         <v>17136341196</v>
@@ -1253,10 +1254,10 @@
     </row>
     <row r="13" spans="5:9" x14ac:dyDescent="0.2">
       <c r="E13" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F13" s="8" t="s">
         <v>44</v>
-      </c>
-      <c r="F13" s="8" t="s">
-        <v>45</v>
       </c>
       <c r="G13" s="7">
         <v>17040214075</v>
@@ -1270,10 +1271,10 @@
     </row>
     <row r="14" spans="5:9" x14ac:dyDescent="0.2">
       <c r="E14" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F14" s="8" t="s">
         <v>46</v>
-      </c>
-      <c r="F14" s="8" t="s">
-        <v>47</v>
       </c>
       <c r="G14" s="7">
         <v>17050683431</v>
@@ -1287,10 +1288,10 @@
     </row>
     <row r="15" spans="5:9" x14ac:dyDescent="0.2">
       <c r="E15" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="F15" s="8" t="s">
         <v>48</v>
-      </c>
-      <c r="F15" s="8" t="s">
-        <v>49</v>
       </c>
       <c r="G15" s="7">
         <v>15607045070</v>
@@ -1304,10 +1305,10 @@
     </row>
     <row r="16" spans="5:9" x14ac:dyDescent="0.2">
       <c r="E16" t="s">
+        <v>49</v>
+      </c>
+      <c r="F16" s="10" t="s">
         <v>50</v>
-      </c>
-      <c r="F16" s="10" t="s">
-        <v>51</v>
       </c>
       <c r="G16">
         <v>17198212532</v>
@@ -1319,10 +1320,10 @@
     </row>
     <row r="17" spans="5:10" x14ac:dyDescent="0.2">
       <c r="E17" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F17" s="8" t="s">
         <v>52</v>
-      </c>
-      <c r="F17" s="8" t="s">
-        <v>53</v>
       </c>
       <c r="G17" s="7">
         <v>17153075010</v>
@@ -1334,10 +1335,10 @@
     </row>
     <row r="18" spans="5:10" x14ac:dyDescent="0.2">
       <c r="E18" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="F18" s="29" t="s">
         <v>54</v>
-      </c>
-      <c r="F18" s="29" t="s">
-        <v>55</v>
       </c>
       <c r="G18" s="7">
         <v>15734965373</v>
@@ -1351,10 +1352,10 @@
     </row>
     <row r="19" spans="5:10" x14ac:dyDescent="0.2">
       <c r="E19" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F19" s="8" t="s">
         <v>27</v>
-      </c>
-      <c r="F19" s="8" t="s">
-        <v>28</v>
       </c>
       <c r="G19" s="7">
         <v>17050684778</v>
@@ -1366,10 +1367,10 @@
     </row>
     <row r="20" spans="5:10" x14ac:dyDescent="0.2">
       <c r="E20" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F20" s="8" t="s">
         <v>29</v>
-      </c>
-      <c r="F20" s="8" t="s">
-        <v>30</v>
       </c>
       <c r="G20" s="7">
         <v>13313493769</v>
@@ -1381,10 +1382,10 @@
     </row>
     <row r="21" spans="5:10" x14ac:dyDescent="0.2">
       <c r="E21" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="F21" s="8" t="s">
         <v>65</v>
-      </c>
-      <c r="F21" s="8" t="s">
-        <v>66</v>
       </c>
       <c r="G21" s="7"/>
       <c r="H21" s="7">
@@ -1397,10 +1398,10 @@
     </row>
     <row r="22" spans="5:10" ht="28.5" x14ac:dyDescent="0.2">
       <c r="E22" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F22" s="8" t="s">
         <v>58</v>
-      </c>
-      <c r="F22" s="8" t="s">
-        <v>59</v>
       </c>
       <c r="G22" s="7"/>
       <c r="H22" s="7">
@@ -1408,7 +1409,7 @@
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="23" spans="5:10" x14ac:dyDescent="0.2">

--- a/miaoTemp/武汉/楚天/汉阳用户.xlsx
+++ b/miaoTemp/武汉/楚天/汉阳用户.xlsx
@@ -8,20 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CSharp\DotnetMiao\miaoTemp\武汉\楚天\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2036DDB8-193C-42E7-98A5-9D33EB03CD51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01CA9ADB-99A7-4F71-9819-CF5A9BB77B8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="汉阳" sheetId="1" r:id="rId1"/>
     <sheet name="汉阳成功" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="72">
   <si>
     <t>姓名</t>
   </si>
@@ -245,6 +246,14 @@
   </si>
   <si>
     <t>420503200104235527</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 张雯娟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>420802199905050025</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -671,8 +680,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C7:L45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1072,10 +1081,16 @@
       <c r="H40" s="9"/>
     </row>
     <row r="41" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C41" s="7"/>
-      <c r="D41" s="8"/>
+      <c r="C41" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="D41" s="8" t="s">
+        <v>71</v>
+      </c>
       <c r="E41" s="7"/>
-      <c r="F41" s="7"/>
+      <c r="F41" s="7">
+        <v>18171438859</v>
+      </c>
       <c r="G41" s="9"/>
       <c r="H41" s="9"/>
     </row>

--- a/miaoTemp/武汉/楚天/汉阳用户.xlsx
+++ b/miaoTemp/武汉/楚天/汉阳用户.xlsx
@@ -8,16 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CSharp\DotnetMiao\miaoTemp\武汉\楚天\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01CA9ADB-99A7-4F71-9819-CF5A9BB77B8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA931231-5EB1-4B37-94D5-E0BB7FA65D4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2220" yWindow="1200" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="汉阳" sheetId="1" r:id="rId1"/>
     <sheet name="汉阳成功" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -680,7 +679,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C7:L45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
       <selection activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
@@ -1087,7 +1086,9 @@
       <c r="D41" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="E41" s="7"/>
+      <c r="E41" s="7">
+        <v>17152022762</v>
+      </c>
       <c r="F41" s="7">
         <v>18171438859</v>
       </c>

--- a/miaoTemp/武汉/楚天/汉阳用户.xlsx
+++ b/miaoTemp/武汉/楚天/汉阳用户.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CSharp\DotnetMiao\miaoTemp\武汉\楚天\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA931231-5EB1-4B37-94D5-E0BB7FA65D4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75E68A8D-E771-4D5A-BFEF-30DB2C3C93C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2220" yWindow="1200" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -680,7 +680,7 @@
   <dimension ref="C7:L45"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="E41" sqref="E41"/>
+      <selection activeCell="G39" sqref="G39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/miaoTemp/武汉/楚天/汉阳用户.xlsx
+++ b/miaoTemp/武汉/楚天/汉阳用户.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CSharp\DotnetMiao\miaoTemp\武汉\楚天\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75E68A8D-E771-4D5A-BFEF-30DB2C3C93C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE59567F-3D9A-4B26-B182-29A9828CD5E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2220" yWindow="1200" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="汉阳" sheetId="1" r:id="rId1"/>
@@ -89,170 +89,178 @@
     <t>赵雅琴</t>
   </si>
   <si>
+    <t>晏林</t>
+  </si>
+  <si>
+    <t>500382199808086442</t>
+  </si>
+  <si>
+    <t>黄雨琪</t>
+  </si>
+  <si>
+    <t>杜冰璇</t>
+  </si>
+  <si>
+    <t>420117200009105528</t>
+  </si>
+  <si>
+    <t>周秦思雯</t>
+  </si>
+  <si>
+    <t>420111199912013124</t>
+  </si>
+  <si>
+    <t>黄露丹</t>
+  </si>
+  <si>
+    <t>高佩</t>
+  </si>
+  <si>
+    <t xml:space="preserve">李梦希 </t>
+  </si>
+  <si>
+    <t>420821199403092363</t>
+  </si>
+  <si>
+    <t>李佳</t>
+  </si>
+  <si>
+    <t>桂子艺</t>
+  </si>
+  <si>
+    <t>张倩</t>
+  </si>
+  <si>
+    <t>370125199612145946</t>
+  </si>
+  <si>
+    <t>王露露</t>
+  </si>
+  <si>
+    <t>37078619970104064X</t>
+  </si>
+  <si>
+    <t>徐春秀</t>
+  </si>
+  <si>
+    <t>37150219970418932X</t>
+  </si>
+  <si>
+    <t>赵倩</t>
+  </si>
+  <si>
+    <t>340602199803182843</t>
+  </si>
+  <si>
+    <t>周月月</t>
+  </si>
+  <si>
+    <t>411527199909155545</t>
+  </si>
+  <si>
+    <t>何丹</t>
+  </si>
+  <si>
+    <t>511922199909123926</t>
+  </si>
+  <si>
+    <t>计玥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>429004200002280340</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杨雯雯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>420106200201194023</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘萌萌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>410181199909016022</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注册流程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4. 点击【登录】- 【用户注册】进行注册。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wuhan2018</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>童雯静</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">420104200107233329 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yww20020119</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jiyue0228</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>612426199806235426</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>420503200104235527</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 张雯娟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>420802199905050025</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>421081199905074281</t>
-  </si>
-  <si>
-    <t>晏林</t>
-  </si>
-  <si>
-    <t>500382199808086442</t>
-  </si>
-  <si>
-    <t>黄雨琪</t>
-  </si>
-  <si>
-    <t>杜冰璇</t>
-  </si>
-  <si>
-    <t>420117200009105528</t>
-  </si>
-  <si>
-    <t>周秦思雯</t>
-  </si>
-  <si>
-    <t>420111199912013124</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>420802199908260028</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>610502200007165626</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>422822199801240040</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>42080420021220232X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>411524199506020022</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>张远媛</t>
-  </si>
-  <si>
-    <t>黄露丹</t>
-  </si>
-  <si>
-    <t>420802199908260028</t>
-  </si>
-  <si>
-    <t>高佩</t>
-  </si>
-  <si>
-    <t>610502200007165626</t>
-  </si>
-  <si>
-    <t xml:space="preserve">李梦希 </t>
-  </si>
-  <si>
-    <t>420821199403092363</t>
-  </si>
-  <si>
-    <t>李佳</t>
-  </si>
-  <si>
-    <t>411524199506020022</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>冯书语</t>
-  </si>
-  <si>
-    <t>422822199801240040</t>
-  </si>
-  <si>
-    <t>桂子艺</t>
-  </si>
-  <si>
-    <t>42080420021220232X</t>
-  </si>
-  <si>
-    <t>张倩</t>
-  </si>
-  <si>
-    <t>370125199612145946</t>
-  </si>
-  <si>
-    <t>王露露</t>
-  </si>
-  <si>
-    <t>37078619970104064X</t>
-  </si>
-  <si>
-    <t>徐春秀</t>
-  </si>
-  <si>
-    <t>37150219970418932X</t>
-  </si>
-  <si>
-    <t>赵倩</t>
-  </si>
-  <si>
-    <t>340602199803182843</t>
-  </si>
-  <si>
-    <t>周月月</t>
-  </si>
-  <si>
-    <t>411527199909155545</t>
-  </si>
-  <si>
-    <t>何丹</t>
-  </si>
-  <si>
-    <t>511922199909123926</t>
-  </si>
-  <si>
-    <t>计玥</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>429004200002280340</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>杨雯雯</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>420106200201194023</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>刘萌萌</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>410181199909016022</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>注册流程</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4. 点击【登录】- 【用户注册】进行注册。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>wuhan2018</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>童雯静</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">420104200107233329 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Yww20020119</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>jiyue0228</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>612426199806235426</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>420503200104235527</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 张雯娟</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>420802199905050025</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -679,8 +687,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C7:L45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="G39" sqref="G39"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -840,7 +848,7 @@
       <c r="G18" s="14"/>
       <c r="H18" s="9"/>
       <c r="L18" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
     </row>
     <row r="19" spans="3:12" x14ac:dyDescent="0.2">
@@ -884,7 +892,7 @@
       <c r="G22" s="9"/>
       <c r="H22" s="9"/>
       <c r="L22" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
     </row>
     <row r="23" spans="3:12" x14ac:dyDescent="0.2">
@@ -928,7 +936,7 @@
         <v>21</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>22</v>
+        <v>64</v>
       </c>
       <c r="E26" s="7"/>
       <c r="F26" s="7">
@@ -939,10 +947,10 @@
     </row>
     <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D27" s="8" t="s">
         <v>23</v>
-      </c>
-      <c r="D27" s="8" t="s">
-        <v>24</v>
       </c>
       <c r="E27" s="7"/>
       <c r="F27" s="7">
@@ -977,10 +985,10 @@
     </row>
     <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="E31" s="7">
         <v>17129530447</v>
@@ -1017,10 +1025,10 @@
     </row>
     <row r="35" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C35" s="7" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="E35" s="7"/>
       <c r="F35" s="7">
@@ -1028,7 +1036,7 @@
       </c>
       <c r="G35" s="9"/>
       <c r="H35" s="30" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
     </row>
     <row r="36" spans="3:8" x14ac:dyDescent="0.2">
@@ -1041,10 +1049,10 @@
     </row>
     <row r="37" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C37" s="7" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="E37" s="7"/>
       <c r="F37" s="7">
@@ -1052,7 +1060,7 @@
       </c>
       <c r="G37" s="9"/>
       <c r="H37" s="9" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
     </row>
     <row r="38" spans="3:8" x14ac:dyDescent="0.2">
@@ -1081,10 +1089,10 @@
     </row>
     <row r="41" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C41" s="7" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="E41" s="7">
         <v>17152022762</v>
@@ -1138,8 +1146,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="E6:J35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1151,10 +1159,10 @@
   <sheetData>
     <row r="6" spans="5:9" x14ac:dyDescent="0.2">
       <c r="E6" s="1" t="s">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="F6" s="26" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="G6" s="1">
         <v>17050685132</v>
@@ -1168,10 +1176,10 @@
     </row>
     <row r="7" spans="5:9" x14ac:dyDescent="0.2">
       <c r="E7" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F7" s="26" t="s">
-        <v>32</v>
+        <v>65</v>
       </c>
       <c r="G7" s="1">
         <v>17198008619</v>
@@ -1185,10 +1193,10 @@
     </row>
     <row r="8" spans="5:9" x14ac:dyDescent="0.2">
       <c r="E8" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F8" s="26" t="s">
-        <v>34</v>
+        <v>66</v>
       </c>
       <c r="G8" s="1">
         <v>17025472447</v>
@@ -1202,10 +1210,10 @@
     </row>
     <row r="9" spans="5:9" x14ac:dyDescent="0.2">
       <c r="E9" s="3" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F9" s="27" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G9" s="3">
         <v>17025472447</v>
@@ -1219,10 +1227,10 @@
     </row>
     <row r="10" spans="5:9" x14ac:dyDescent="0.2">
       <c r="E10" s="5" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F10" s="28" t="s">
-        <v>38</v>
+        <v>69</v>
       </c>
       <c r="G10" s="5">
         <v>17147715197</v>
@@ -1236,10 +1244,10 @@
     </row>
     <row r="11" spans="5:9" x14ac:dyDescent="0.2">
       <c r="E11" s="7" t="s">
-        <v>39</v>
+        <v>71</v>
       </c>
       <c r="F11" s="25" t="s">
-        <v>40</v>
+        <v>67</v>
       </c>
       <c r="G11" s="7">
         <v>17190092942</v>
@@ -1253,10 +1261,10 @@
     </row>
     <row r="12" spans="5:9" x14ac:dyDescent="0.2">
       <c r="E12" s="7" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>42</v>
+        <v>68</v>
       </c>
       <c r="G12" s="7">
         <v>17136341196</v>
@@ -1270,10 +1278,10 @@
     </row>
     <row r="13" spans="5:9" x14ac:dyDescent="0.2">
       <c r="E13" s="9" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="G13" s="7">
         <v>17040214075</v>
@@ -1287,10 +1295,10 @@
     </row>
     <row r="14" spans="5:9" x14ac:dyDescent="0.2">
       <c r="E14" s="7" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="G14" s="7">
         <v>17050683431</v>
@@ -1304,10 +1312,10 @@
     </row>
     <row r="15" spans="5:9" x14ac:dyDescent="0.2">
       <c r="E15" s="7" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="G15" s="7">
         <v>15607045070</v>
@@ -1321,10 +1329,10 @@
     </row>
     <row r="16" spans="5:9" x14ac:dyDescent="0.2">
       <c r="E16" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="F16" s="10" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G16">
         <v>17198212532</v>
@@ -1336,10 +1344,10 @@
     </row>
     <row r="17" spans="5:10" x14ac:dyDescent="0.2">
       <c r="E17" s="7" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="G17" s="7">
         <v>17153075010</v>
@@ -1351,10 +1359,10 @@
     </row>
     <row r="18" spans="5:10" x14ac:dyDescent="0.2">
       <c r="E18" s="7" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="F18" s="29" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="G18" s="7">
         <v>15734965373</v>
@@ -1368,10 +1376,10 @@
     </row>
     <row r="19" spans="5:10" x14ac:dyDescent="0.2">
       <c r="E19" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F19" s="8" t="s">
         <v>26</v>
-      </c>
-      <c r="F19" s="8" t="s">
-        <v>27</v>
       </c>
       <c r="G19" s="7">
         <v>17050684778</v>
@@ -1383,10 +1391,10 @@
     </row>
     <row r="20" spans="5:10" x14ac:dyDescent="0.2">
       <c r="E20" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F20" s="8" t="s">
         <v>28</v>
-      </c>
-      <c r="F20" s="8" t="s">
-        <v>29</v>
       </c>
       <c r="G20" s="7">
         <v>13313493769</v>
@@ -1398,10 +1406,10 @@
     </row>
     <row r="21" spans="5:10" x14ac:dyDescent="0.2">
       <c r="E21" s="7" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="G21" s="7"/>
       <c r="H21" s="7">
@@ -1414,10 +1422,10 @@
     </row>
     <row r="22" spans="5:10" ht="28.5" x14ac:dyDescent="0.2">
       <c r="E22" s="7" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="G22" s="7"/>
       <c r="H22" s="7">
@@ -1425,7 +1433,7 @@
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
     </row>
     <row r="23" spans="5:10" x14ac:dyDescent="0.2">
